--- a/Copy-of-VitalQIP-3rd-party.xlsx
+++ b/Copy-of-VitalQIP-3rd-party.xlsx
@@ -10,10 +10,10 @@
     <sheet name="3rd Party SW" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3rd Party SW'!$A$1:$AR$127</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3rd Party SW'!$A$1:$AR$126</definedName>
     <definedName name="COTS">#REF!</definedName>
     <definedName name="Environment_Specification">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'3rd Party SW'!$A$1:$AQ$120</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'3rd Party SW'!$A$1:$AQ$119</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'3rd Party SW'!$A:$A,'3rd Party SW'!$1:$1</definedName>
     <definedName name="SF_Component_Integration">#REF!</definedName>
     <definedName name="Text20" localSheetId="0">'3rd Party SW'!$E$59</definedName>
@@ -440,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C81" authorId="4">
+    <comment ref="C80" authorId="4">
       <text>
         <r>
           <rPr>
@@ -455,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C92" authorId="4">
+    <comment ref="C91" authorId="4">
       <text>
         <r>
           <rPr>
@@ -470,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB92" authorId="4">
+    <comment ref="AB91" authorId="4">
       <text>
         <r>
           <rPr>
@@ -484,7 +484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB95" authorId="4">
+    <comment ref="AB94" authorId="4">
       <text>
         <r>
           <rPr>
@@ -495,6 +495,30 @@
             <family val="2"/>
           </rPr>
           <t>DNS 4.1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM96" authorId="4">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>mcleckner:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+VA2.2 Using 9.2.0.3</t>
         </r>
       </text>
     </comment>
@@ -518,35 +542,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-VA2.2 Using 9.2.0.3</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AM98" authorId="4">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>mcleckner:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
 VA2.2 using 5.5.5</t>
         </r>
       </text>
     </comment>
-    <comment ref="AM113" authorId="4">
+    <comment ref="AM112" authorId="4">
       <text>
         <r>
           <rPr>
@@ -575,7 +575,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="252">
   <si>
     <t>Version (and Patch) Level In Use</t>
   </si>
@@ -935,12 +935,6 @@
     <t>javax.websocket-api</t>
   </si>
   <si>
-    <t>ws.rs</t>
-  </si>
-  <si>
-    <t>jsr311-api</t>
-  </si>
-  <si>
     <t>transaction</t>
   </si>
   <si>
@@ -1293,6 +1287,51 @@
   </si>
   <si>
     <t>ehcache-terracotta 2.4.3 (Terracotta Public License )</t>
+  </si>
+  <si>
+    <t>http://javacsv.sourceforge.net/</t>
+  </si>
+  <si>
+    <t>CSV Libraries</t>
+  </si>
+  <si>
+    <t>GNU Library or Lesser General Public License</t>
+  </si>
+  <si>
+    <t>http://www.gnu.org/licenses/lgpl.html</t>
+  </si>
+  <si>
+    <t>http://jtds.sourceforge.net</t>
+  </si>
+  <si>
+    <t>LGPL</t>
+  </si>
+  <si>
+    <t>http://www.gnu.org/copyleft/lesser.html</t>
+  </si>
+  <si>
+    <t>http://java.sun.com/products/jta</t>
+  </si>
+  <si>
+    <t>Transaction APIs/Managers</t>
+  </si>
+  <si>
+    <t>GPL-3.0</t>
+  </si>
+  <si>
+    <t>http://www.gnu.org/licenses/gpl-3.0.html</t>
+  </si>
+  <si>
+    <t>http://websocket-spec.java.net</t>
+  </si>
+  <si>
+    <t>WebSocket Clients</t>
+  </si>
+  <si>
+    <t>GlassFish</t>
+  </si>
+  <si>
+    <t>https://glassfish.java.net/public/CDDL+GPL_1_1.html</t>
   </si>
 </sst>
 </file>
@@ -1698,7 +1737,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="186">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1793,9 +1832,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2017,9 +2053,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2183,13 +2216,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="15" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2216,6 +2247,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2655,20 +2707,20 @@
     <tabColor indexed="45"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AV159"/>
+  <dimension ref="A1:AV158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E90" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D79" sqref="D79"/>
+      <selection pane="bottomRight" activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="32.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" style="123" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="136" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="121" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="134" customWidth="1"/>
     <col min="4" max="4" width="29.7109375" customWidth="1"/>
     <col min="5" max="5" width="37.140625" style="5" customWidth="1"/>
     <col min="6" max="6" width="22.28515625" customWidth="1"/>
@@ -2690,13 +2742,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="4" customFormat="1" ht="95.25" customHeight="1" thickBot="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="122" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -2754,24 +2806,24 @@
       <c r="AN1" s="11"/>
       <c r="AO1" s="11"/>
       <c r="AP1" s="8"/>
-      <c r="AQ1" s="40"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="62"/>
-    </row>
-    <row r="2" spans="1:45" s="36" customFormat="1">
-      <c r="A2" s="157" t="s">
+      <c r="AQ1" s="39"/>
+      <c r="AR1" s="59"/>
+      <c r="AS1" s="61"/>
+    </row>
+    <row r="2" spans="1:45" s="35" customFormat="1">
+      <c r="A2" s="155" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="155" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="125" t="s">
+      <c r="C2" s="123" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="E2" s="46"/>
+        <v>162</v>
+      </c>
+      <c r="E2" s="45"/>
       <c r="F2" s="20"/>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
@@ -2786,10 +2838,10 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="21"/>
       <c r="S2" s="21"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
+      <c r="T2" s="58"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
       <c r="X2" s="14"/>
       <c r="Y2" s="14"/>
       <c r="Z2" s="22"/>
@@ -2812,18 +2864,18 @@
       <c r="AQ2" s="24"/>
       <c r="AR2" s="25"/>
     </row>
-    <row r="3" spans="1:45" s="36" customFormat="1">
-      <c r="A3" s="158"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="125"/>
+    <row r="3" spans="1:45" s="35" customFormat="1">
+      <c r="A3" s="156"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="123"/>
       <c r="D3" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="138"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
+        <v>163</v>
+      </c>
+      <c r="E3" s="111"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
       <c r="J3" s="15"/>
       <c r="K3" s="15"/>
       <c r="L3" s="15"/>
@@ -2834,10 +2886,10 @@
       <c r="Q3" s="15"/>
       <c r="R3" s="21"/>
       <c r="S3" s="21"/>
-      <c r="T3" s="59"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+      <c r="W3" s="47"/>
       <c r="X3" s="14"/>
       <c r="Y3" s="14"/>
       <c r="Z3" s="22"/>
@@ -2860,18 +2912,18 @@
       <c r="AQ3" s="24"/>
       <c r="AR3" s="25"/>
     </row>
-    <row r="4" spans="1:45" s="36" customFormat="1">
-      <c r="A4" s="158"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="125"/>
+    <row r="4" spans="1:45" s="35" customFormat="1">
+      <c r="A4" s="156"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="123"/>
       <c r="D4" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="112"/>
-      <c r="F4" s="138"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
+        <v>164</v>
+      </c>
+      <c r="E4" s="111"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
@@ -2882,10 +2934,10 @@
       <c r="Q4" s="15"/>
       <c r="R4" s="21"/>
       <c r="S4" s="21"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="48"/>
-      <c r="V4" s="48"/>
-      <c r="W4" s="48"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+      <c r="W4" s="47"/>
       <c r="X4" s="14"/>
       <c r="Y4" s="14"/>
       <c r="Z4" s="22"/>
@@ -2908,18 +2960,18 @@
       <c r="AQ4" s="24"/>
       <c r="AR4" s="25"/>
     </row>
-    <row r="5" spans="1:45" s="36" customFormat="1">
-      <c r="A5" s="158"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="125"/>
+    <row r="5" spans="1:45" s="35" customFormat="1">
+      <c r="A5" s="156"/>
+      <c r="B5" s="156"/>
+      <c r="C5" s="123"/>
       <c r="D5" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
+        <v>165</v>
+      </c>
+      <c r="E5" s="111"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15"/>
@@ -2930,10 +2982,10 @@
       <c r="Q5" s="15"/>
       <c r="R5" s="21"/>
       <c r="S5" s="21"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
+      <c r="T5" s="58"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+      <c r="W5" s="47"/>
       <c r="X5" s="14"/>
       <c r="Y5" s="14"/>
       <c r="Z5" s="22"/>
@@ -2956,18 +3008,18 @@
       <c r="AQ5" s="24"/>
       <c r="AR5" s="25"/>
     </row>
-    <row r="6" spans="1:45" s="36" customFormat="1">
-      <c r="A6" s="158"/>
-      <c r="B6" s="158"/>
-      <c r="C6" s="125"/>
+    <row r="6" spans="1:45" s="35" customFormat="1">
+      <c r="A6" s="156"/>
+      <c r="B6" s="156"/>
+      <c r="C6" s="123"/>
       <c r="D6" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="E6" s="112"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
+        <v>166</v>
+      </c>
+      <c r="E6" s="111"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15"/>
@@ -2978,10 +3030,10 @@
       <c r="Q6" s="15"/>
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
-      <c r="T6" s="59"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="47"/>
       <c r="X6" s="14"/>
       <c r="Y6" s="14"/>
       <c r="Z6" s="22"/>
@@ -3004,18 +3056,18 @@
       <c r="AQ6" s="24"/>
       <c r="AR6" s="25"/>
     </row>
-    <row r="7" spans="1:45" s="36" customFormat="1">
-      <c r="A7" s="158"/>
-      <c r="B7" s="158"/>
-      <c r="C7" s="125"/>
+    <row r="7" spans="1:45" s="35" customFormat="1">
+      <c r="A7" s="156"/>
+      <c r="B7" s="156"/>
+      <c r="C7" s="123"/>
       <c r="D7" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" s="112"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
+        <v>167</v>
+      </c>
+      <c r="E7" s="111"/>
+      <c r="F7" s="136"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
@@ -3026,10 +3078,10 @@
       <c r="Q7" s="15"/>
       <c r="R7" s="21"/>
       <c r="S7" s="21"/>
-      <c r="T7" s="59"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="47"/>
+      <c r="V7" s="47"/>
+      <c r="W7" s="47"/>
       <c r="X7" s="14"/>
       <c r="Y7" s="14"/>
       <c r="Z7" s="22"/>
@@ -3052,18 +3104,18 @@
       <c r="AQ7" s="24"/>
       <c r="AR7" s="25"/>
     </row>
-    <row r="8" spans="1:45" s="36" customFormat="1">
-      <c r="A8" s="158"/>
-      <c r="B8" s="158"/>
-      <c r="C8" s="125"/>
+    <row r="8" spans="1:45" s="35" customFormat="1">
+      <c r="A8" s="156"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="31" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" s="112"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
+        <v>168</v>
+      </c>
+      <c r="E8" s="111"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
@@ -3074,10 +3126,10 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
-      <c r="T8" s="59"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="47"/>
+      <c r="W8" s="47"/>
       <c r="X8" s="14"/>
       <c r="Y8" s="14"/>
       <c r="Z8" s="22"/>
@@ -3100,18 +3152,18 @@
       <c r="AQ8" s="24"/>
       <c r="AR8" s="25"/>
     </row>
-    <row r="9" spans="1:45" s="36" customFormat="1">
-      <c r="A9" s="158"/>
-      <c r="B9" s="158"/>
-      <c r="C9" s="125"/>
+    <row r="9" spans="1:45" s="35" customFormat="1">
+      <c r="A9" s="156"/>
+      <c r="B9" s="156"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="112"/>
-      <c r="F9" s="138"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
-      <c r="I9" s="139"/>
+        <v>169</v>
+      </c>
+      <c r="E9" s="111"/>
+      <c r="F9" s="136"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
@@ -3122,10 +3174,10 @@
       <c r="Q9" s="15"/>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
-      <c r="T9" s="59"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="47"/>
+      <c r="W9" s="47"/>
       <c r="X9" s="14"/>
       <c r="Y9" s="14"/>
       <c r="Z9" s="22"/>
@@ -3148,18 +3200,18 @@
       <c r="AQ9" s="24"/>
       <c r="AR9" s="25"/>
     </row>
-    <row r="10" spans="1:45" s="36" customFormat="1">
-      <c r="A10" s="158"/>
-      <c r="B10" s="158"/>
-      <c r="C10" s="125"/>
+    <row r="10" spans="1:45" s="35" customFormat="1">
+      <c r="A10" s="156"/>
+      <c r="B10" s="156"/>
+      <c r="C10" s="123"/>
       <c r="D10" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="E10" s="112"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
+        <v>170</v>
+      </c>
+      <c r="E10" s="111"/>
+      <c r="F10" s="136"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
@@ -3170,10 +3222,10 @@
       <c r="Q10" s="15"/>
       <c r="R10" s="21"/>
       <c r="S10" s="21"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="47"/>
+      <c r="W10" s="47"/>
       <c r="X10" s="14"/>
       <c r="Y10" s="14"/>
       <c r="Z10" s="22"/>
@@ -3196,18 +3248,18 @@
       <c r="AQ10" s="24"/>
       <c r="AR10" s="25"/>
     </row>
-    <row r="11" spans="1:45" s="36" customFormat="1">
-      <c r="A11" s="158"/>
-      <c r="B11" s="158"/>
-      <c r="C11" s="125"/>
+    <row r="11" spans="1:45" s="35" customFormat="1">
+      <c r="A11" s="156"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="123"/>
       <c r="D11" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" s="112"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
+        <v>171</v>
+      </c>
+      <c r="E11" s="111"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
@@ -3218,10 +3270,10 @@
       <c r="Q11" s="15"/>
       <c r="R11" s="21"/>
       <c r="S11" s="21"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="47"/>
+      <c r="W11" s="47"/>
       <c r="X11" s="14"/>
       <c r="Y11" s="14"/>
       <c r="Z11" s="22"/>
@@ -3244,18 +3296,18 @@
       <c r="AQ11" s="24"/>
       <c r="AR11" s="25"/>
     </row>
-    <row r="12" spans="1:45" s="36" customFormat="1">
-      <c r="A12" s="158"/>
-      <c r="B12" s="158"/>
-      <c r="C12" s="125"/>
+    <row r="12" spans="1:45" s="35" customFormat="1">
+      <c r="A12" s="156"/>
+      <c r="B12" s="156"/>
+      <c r="C12" s="123"/>
       <c r="D12" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="E12" s="112"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="139"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
+        <v>172</v>
+      </c>
+      <c r="E12" s="111"/>
+      <c r="F12" s="136"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
@@ -3266,10 +3318,10 @@
       <c r="Q12" s="15"/>
       <c r="R12" s="21"/>
       <c r="S12" s="21"/>
-      <c r="T12" s="59"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+      <c r="W12" s="47"/>
       <c r="X12" s="14"/>
       <c r="Y12" s="14"/>
       <c r="Z12" s="22"/>
@@ -3292,18 +3344,18 @@
       <c r="AQ12" s="24"/>
       <c r="AR12" s="25"/>
     </row>
-    <row r="13" spans="1:45" s="36" customFormat="1">
-      <c r="A13" s="158"/>
-      <c r="B13" s="158"/>
-      <c r="C13" s="125"/>
+    <row r="13" spans="1:45" s="35" customFormat="1">
+      <c r="A13" s="156"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="123"/>
       <c r="D13" s="31" t="s">
-        <v>175</v>
-      </c>
-      <c r="E13" s="112"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
+        <v>173</v>
+      </c>
+      <c r="E13" s="111"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
@@ -3314,10 +3366,10 @@
       <c r="Q13" s="15"/>
       <c r="R13" s="21"/>
       <c r="S13" s="21"/>
-      <c r="T13" s="59"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+      <c r="W13" s="47"/>
       <c r="X13" s="14"/>
       <c r="Y13" s="14"/>
       <c r="Z13" s="22"/>
@@ -3340,18 +3392,18 @@
       <c r="AQ13" s="24"/>
       <c r="AR13" s="25"/>
     </row>
-    <row r="14" spans="1:45" s="36" customFormat="1">
-      <c r="A14" s="158"/>
-      <c r="B14" s="158"/>
-      <c r="C14" s="125"/>
+    <row r="14" spans="1:45" s="35" customFormat="1">
+      <c r="A14" s="156"/>
+      <c r="B14" s="156"/>
+      <c r="C14" s="123"/>
       <c r="D14" s="31" t="s">
-        <v>176</v>
-      </c>
-      <c r="E14" s="112"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="139"/>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
+        <v>174</v>
+      </c>
+      <c r="E14" s="111"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
@@ -3362,10 +3414,10 @@
       <c r="Q14" s="15"/>
       <c r="R14" s="21"/>
       <c r="S14" s="21"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+      <c r="W14" s="47"/>
       <c r="X14" s="14"/>
       <c r="Y14" s="14"/>
       <c r="Z14" s="22"/>
@@ -3388,18 +3440,18 @@
       <c r="AQ14" s="24"/>
       <c r="AR14" s="25"/>
     </row>
-    <row r="15" spans="1:45" s="36" customFormat="1">
-      <c r="A15" s="158"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="125"/>
+    <row r="15" spans="1:45" s="35" customFormat="1">
+      <c r="A15" s="156"/>
+      <c r="B15" s="156"/>
+      <c r="C15" s="123"/>
       <c r="D15" s="31" t="s">
-        <v>177</v>
-      </c>
-      <c r="E15" s="112"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
+        <v>175</v>
+      </c>
+      <c r="E15" s="111"/>
+      <c r="F15" s="136"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
@@ -3410,10 +3462,10 @@
       <c r="Q15" s="15"/>
       <c r="R15" s="21"/>
       <c r="S15" s="21"/>
-      <c r="T15" s="59"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="47"/>
+      <c r="W15" s="47"/>
       <c r="X15" s="14"/>
       <c r="Y15" s="14"/>
       <c r="Z15" s="22"/>
@@ -3436,18 +3488,18 @@
       <c r="AQ15" s="24"/>
       <c r="AR15" s="25"/>
     </row>
-    <row r="16" spans="1:45" s="36" customFormat="1">
-      <c r="A16" s="158"/>
-      <c r="B16" s="158"/>
-      <c r="C16" s="125"/>
+    <row r="16" spans="1:45" s="35" customFormat="1">
+      <c r="A16" s="156"/>
+      <c r="B16" s="156"/>
+      <c r="C16" s="123"/>
       <c r="D16" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="E16" s="112"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
+        <v>176</v>
+      </c>
+      <c r="E16" s="111"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
@@ -3458,10 +3510,10 @@
       <c r="Q16" s="15"/>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="47"/>
+      <c r="V16" s="47"/>
+      <c r="W16" s="47"/>
       <c r="X16" s="14"/>
       <c r="Y16" s="14"/>
       <c r="Z16" s="22"/>
@@ -3484,18 +3536,18 @@
       <c r="AQ16" s="24"/>
       <c r="AR16" s="25"/>
     </row>
-    <row r="17" spans="1:45" s="36" customFormat="1">
-      <c r="A17" s="158"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="125"/>
+    <row r="17" spans="1:45" s="35" customFormat="1">
+      <c r="A17" s="156"/>
+      <c r="B17" s="156"/>
+      <c r="C17" s="123"/>
       <c r="D17" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="E17" s="112"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
+        <v>177</v>
+      </c>
+      <c r="E17" s="111"/>
+      <c r="F17" s="136"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
@@ -3506,10 +3558,10 @@
       <c r="Q17" s="15"/>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
+      <c r="T17" s="58"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
       <c r="X17" s="14"/>
       <c r="Y17" s="14"/>
       <c r="Z17" s="22"/>
@@ -3532,18 +3584,18 @@
       <c r="AQ17" s="24"/>
       <c r="AR17" s="25"/>
     </row>
-    <row r="18" spans="1:45" s="36" customFormat="1">
-      <c r="A18" s="158"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="125"/>
+    <row r="18" spans="1:45" s="35" customFormat="1">
+      <c r="A18" s="156"/>
+      <c r="B18" s="156"/>
+      <c r="C18" s="123"/>
       <c r="D18" s="31" t="s">
-        <v>180</v>
-      </c>
-      <c r="E18" s="112"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
+        <v>178</v>
+      </c>
+      <c r="E18" s="111"/>
+      <c r="F18" s="136"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
@@ -3554,10 +3606,10 @@
       <c r="Q18" s="15"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="48"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="48"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
       <c r="X18" s="14"/>
       <c r="Y18" s="14"/>
       <c r="Z18" s="22"/>
@@ -3580,18 +3632,18 @@
       <c r="AQ18" s="24"/>
       <c r="AR18" s="25"/>
     </row>
-    <row r="19" spans="1:45" s="36" customFormat="1">
-      <c r="A19" s="158"/>
-      <c r="B19" s="158"/>
-      <c r="C19" s="125"/>
+    <row r="19" spans="1:45" s="35" customFormat="1">
+      <c r="A19" s="156"/>
+      <c r="B19" s="156"/>
+      <c r="C19" s="123"/>
       <c r="D19" s="31" t="s">
-        <v>181</v>
-      </c>
-      <c r="E19" s="112"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
+        <v>179</v>
+      </c>
+      <c r="E19" s="111"/>
+      <c r="F19" s="136"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
@@ -3602,10 +3654,10 @@
       <c r="Q19" s="15"/>
       <c r="R19" s="21"/>
       <c r="S19" s="21"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
       <c r="X19" s="14"/>
       <c r="Y19" s="14"/>
       <c r="Z19" s="22"/>
@@ -3628,18 +3680,18 @@
       <c r="AQ19" s="24"/>
       <c r="AR19" s="25"/>
     </row>
-    <row r="20" spans="1:45" s="36" customFormat="1">
-      <c r="A20" s="158"/>
-      <c r="B20" s="159"/>
-      <c r="C20" s="125"/>
+    <row r="20" spans="1:45" s="35" customFormat="1">
+      <c r="A20" s="156"/>
+      <c r="B20" s="157"/>
+      <c r="C20" s="123"/>
       <c r="D20" s="31" t="s">
-        <v>182</v>
-      </c>
-      <c r="E20" s="112"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
+        <v>180</v>
+      </c>
+      <c r="E20" s="111"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="137"/>
+      <c r="H20" s="137"/>
+      <c r="I20" s="137"/>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
@@ -3650,10 +3702,10 @@
       <c r="Q20" s="15"/>
       <c r="R20" s="21"/>
       <c r="S20" s="21"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="48"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
       <c r="Z20" s="22"/>
@@ -3676,24 +3728,24 @@
       <c r="AQ20" s="24"/>
       <c r="AR20" s="25"/>
     </row>
-    <row r="21" spans="1:45" s="37" customFormat="1">
-      <c r="A21" s="158"/>
-      <c r="B21" s="114" t="s">
+    <row r="21" spans="1:45" s="36" customFormat="1">
+      <c r="A21" s="156"/>
+      <c r="B21" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="125" t="s">
+      <c r="C21" s="123" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="172" t="s">
+      <c r="E21" s="170" t="s">
         <v>19</v>
       </c>
-      <c r="F21" s="155"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155" t="s">
+      <c r="F21" s="153"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="I21" s="155"/>
+      <c r="I21" s="153"/>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
@@ -3730,20 +3782,20 @@
       <c r="AQ21" s="24"/>
       <c r="AR21" s="25"/>
     </row>
-    <row r="22" spans="1:45" s="37" customFormat="1">
-      <c r="A22" s="158"/>
+    <row r="22" spans="1:45" s="36" customFormat="1">
+      <c r="A22" s="156"/>
       <c r="B22" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="126" t="s">
+      <c r="C22" s="124" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="12"/>
-      <c r="E22" s="173"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="166"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="166"/>
+      <c r="E22" s="171"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="164"/>
+      <c r="H22" s="164"/>
+      <c r="I22" s="164"/>
       <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
@@ -3754,10 +3806,10 @@
       <c r="Q22" s="14"/>
       <c r="R22" s="14"/>
       <c r="S22" s="14"/>
-      <c r="T22" s="58"/>
+      <c r="T22" s="57"/>
       <c r="U22" s="14"/>
       <c r="V22" s="14"/>
-      <c r="W22" s="48"/>
+      <c r="W22" s="47"/>
       <c r="X22" s="14"/>
       <c r="Y22" s="14"/>
       <c r="Z22" s="14"/>
@@ -3781,19 +3833,19 @@
       <c r="AR22" s="25"/>
     </row>
     <row r="23" spans="1:45" s="3" customFormat="1">
-      <c r="A23" s="158"/>
+      <c r="A23" s="156"/>
       <c r="B23" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="125" t="s">
+      <c r="C23" s="123" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="12"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="166"/>
-      <c r="G23" s="166"/>
-      <c r="H23" s="166"/>
-      <c r="I23" s="166"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="164"/>
+      <c r="G23" s="164"/>
+      <c r="H23" s="164"/>
+      <c r="I23" s="164"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
@@ -3804,10 +3856,10 @@
       <c r="Q23" s="25"/>
       <c r="R23" s="14"/>
       <c r="S23" s="25"/>
-      <c r="T23" s="58"/>
+      <c r="T23" s="57"/>
       <c r="U23" s="14"/>
       <c r="V23" s="14"/>
-      <c r="W23" s="45"/>
+      <c r="W23" s="44"/>
       <c r="X23" s="14"/>
       <c r="Y23" s="14"/>
       <c r="Z23" s="17"/>
@@ -3831,19 +3883,19 @@
       <c r="AR23" s="25"/>
     </row>
     <row r="24" spans="1:45" s="3" customFormat="1">
-      <c r="A24" s="158"/>
+      <c r="A24" s="156"/>
       <c r="B24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="125">
+      <c r="C24" s="123">
         <v>1.3</v>
       </c>
       <c r="D24" s="12"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="166"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="164"/>
+      <c r="H24" s="164"/>
+      <c r="I24" s="164"/>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
@@ -3854,7 +3906,7 @@
       <c r="Q24" s="14"/>
       <c r="R24" s="14"/>
       <c r="S24" s="14"/>
-      <c r="T24" s="58"/>
+      <c r="T24" s="57"/>
       <c r="U24" s="14"/>
       <c r="V24" s="14"/>
       <c r="W24" s="14"/>
@@ -3882,19 +3934,19 @@
       <c r="AS24" s="14"/>
     </row>
     <row r="25" spans="1:45" s="3" customFormat="1">
-      <c r="A25" s="158"/>
+      <c r="A25" s="156"/>
       <c r="B25" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="127" t="s">
+      <c r="C25" s="125" t="s">
         <v>13</v>
       </c>
       <c r="D25" s="12"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="166"/>
-      <c r="G25" s="166"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="166"/>
+      <c r="E25" s="171"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="164"/>
+      <c r="H25" s="164"/>
+      <c r="I25" s="164"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
@@ -3905,10 +3957,10 @@
       <c r="Q25" s="14"/>
       <c r="R25" s="14"/>
       <c r="S25" s="14"/>
-      <c r="T25" s="58"/>
+      <c r="T25" s="57"/>
       <c r="U25" s="14"/>
       <c r="V25" s="14"/>
-      <c r="W25" s="45"/>
+      <c r="W25" s="44"/>
       <c r="X25" s="14"/>
       <c r="Y25" s="14"/>
       <c r="Z25" s="17"/>
@@ -3932,19 +3984,19 @@
       <c r="AR25" s="25"/>
     </row>
     <row r="26" spans="1:45" s="3" customFormat="1">
-      <c r="A26" s="159"/>
+      <c r="A26" s="157"/>
       <c r="B26" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="127" t="s">
+      <c r="C26" s="125" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="12"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
-      <c r="H26" s="166"/>
-      <c r="I26" s="166"/>
+      <c r="E26" s="171"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="164"/>
+      <c r="H26" s="164"/>
+      <c r="I26" s="164"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
@@ -3958,7 +4010,7 @@
       <c r="T26" s="14"/>
       <c r="U26" s="14"/>
       <c r="V26" s="14"/>
-      <c r="W26" s="45"/>
+      <c r="W26" s="44"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="14"/>
       <c r="Z26" s="17"/>
@@ -3982,13 +4034,13 @@
       <c r="AR26" s="25"/>
     </row>
     <row r="27" spans="1:45" s="3" customFormat="1">
-      <c r="A27" s="155" t="s">
+      <c r="A27" s="153" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="127" t="s">
+      <c r="C27" s="125" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="12"/>
@@ -4007,10 +4059,10 @@
       <c r="Q27" s="14"/>
       <c r="R27" s="14"/>
       <c r="S27" s="14"/>
-      <c r="T27" s="58"/>
+      <c r="T27" s="57"/>
       <c r="U27" s="14"/>
       <c r="V27" s="14"/>
-      <c r="W27" s="45"/>
+      <c r="W27" s="44"/>
       <c r="X27" s="14"/>
       <c r="Y27" s="14"/>
       <c r="Z27" s="17"/>
@@ -4034,11 +4086,11 @@
       <c r="AR27" s="25"/>
     </row>
     <row r="28" spans="1:45" s="3" customFormat="1">
-      <c r="A28" s="156"/>
+      <c r="A28" s="154"/>
       <c r="B28" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="127" t="s">
+      <c r="C28" s="125" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="12"/>
@@ -4060,7 +4112,7 @@
       <c r="T28" s="14"/>
       <c r="U28" s="14"/>
       <c r="V28" s="14"/>
-      <c r="W28" s="45"/>
+      <c r="W28" s="44"/>
       <c r="X28" s="14"/>
       <c r="Y28" s="14"/>
       <c r="Z28" s="17"/>
@@ -4090,7 +4142,7 @@
       <c r="B29" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="127" t="s">
+      <c r="C29" s="125" t="s">
         <v>30</v>
       </c>
       <c r="D29" s="12"/>
@@ -4112,7 +4164,7 @@
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
       <c r="V29" s="14"/>
-      <c r="W29" s="45"/>
+      <c r="W29" s="44"/>
       <c r="X29" s="14"/>
       <c r="Y29" s="14"/>
       <c r="Z29" s="17"/>
@@ -4142,7 +4194,7 @@
       <c r="B30" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="127" t="s">
+      <c r="C30" s="125" t="s">
         <v>32</v>
       </c>
       <c r="D30" s="12"/>
@@ -4161,10 +4213,10 @@
       <c r="Q30" s="14"/>
       <c r="R30" s="14"/>
       <c r="S30" s="14"/>
-      <c r="T30" s="58"/>
+      <c r="T30" s="57"/>
       <c r="U30" s="14"/>
       <c r="V30" s="14"/>
-      <c r="W30" s="45"/>
+      <c r="W30" s="44"/>
       <c r="X30" s="14"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="17"/>
@@ -4191,10 +4243,10 @@
       <c r="A31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="127" t="s">
+      <c r="C31" s="125" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="12"/>
@@ -4213,10 +4265,10 @@
       <c r="Q31" s="14"/>
       <c r="R31" s="14"/>
       <c r="S31" s="14"/>
-      <c r="T31" s="58"/>
+      <c r="T31" s="57"/>
       <c r="U31" s="14"/>
       <c r="V31" s="14"/>
-      <c r="W31" s="45"/>
+      <c r="W31" s="44"/>
       <c r="X31" s="14"/>
       <c r="Y31" s="14"/>
       <c r="Z31" s="17"/>
@@ -4243,10 +4295,10 @@
       <c r="A32" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="127" t="s">
+      <c r="C32" s="125" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="12"/>
@@ -4265,10 +4317,10 @@
       <c r="Q32" s="14"/>
       <c r="R32" s="14"/>
       <c r="S32" s="14"/>
-      <c r="T32" s="58"/>
+      <c r="T32" s="57"/>
       <c r="U32" s="14"/>
       <c r="V32" s="14"/>
-      <c r="W32" s="45"/>
+      <c r="W32" s="44"/>
       <c r="X32" s="14"/>
       <c r="Y32" s="14"/>
       <c r="Z32" s="17"/>
@@ -4298,7 +4350,7 @@
       <c r="B33" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="127" t="s">
+      <c r="C33" s="125" t="s">
         <v>38</v>
       </c>
       <c r="D33" s="12"/>
@@ -4317,10 +4369,10 @@
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="S33" s="14"/>
-      <c r="T33" s="58"/>
+      <c r="T33" s="57"/>
       <c r="U33" s="14"/>
       <c r="V33" s="14"/>
-      <c r="W33" s="45"/>
+      <c r="W33" s="44"/>
       <c r="X33" s="14"/>
       <c r="Y33" s="14"/>
       <c r="Z33" s="24"/>
@@ -4350,7 +4402,7 @@
       <c r="B34" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="128" t="s">
+      <c r="C34" s="126" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="12"/>
@@ -4372,7 +4424,7 @@
       <c r="T34" s="14"/>
       <c r="U34" s="14"/>
       <c r="V34" s="14"/>
-      <c r="W34" s="45"/>
+      <c r="W34" s="44"/>
       <c r="X34" s="14"/>
       <c r="Y34" s="14"/>
       <c r="Z34" s="24"/>
@@ -4402,7 +4454,7 @@
       <c r="B35" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="127" t="s">
+      <c r="C35" s="125" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="12"/>
@@ -4421,10 +4473,10 @@
       <c r="Q35" s="14"/>
       <c r="R35" s="14"/>
       <c r="S35" s="14"/>
-      <c r="T35" s="58"/>
+      <c r="T35" s="57"/>
       <c r="U35" s="14"/>
       <c r="V35" s="14"/>
-      <c r="W35" s="45"/>
+      <c r="W35" s="44"/>
       <c r="X35" s="14"/>
       <c r="Y35" s="14"/>
       <c r="Z35" s="17"/>
@@ -4447,14 +4499,14 @@
       <c r="AQ35" s="24"/>
       <c r="AR35" s="25"/>
     </row>
-    <row r="36" spans="1:45" s="37" customFormat="1">
+    <row r="36" spans="1:45" s="36" customFormat="1">
       <c r="A36" s="12" t="s">
         <v>44</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="127" t="s">
+      <c r="C36" s="125" t="s">
         <v>46</v>
       </c>
       <c r="D36" s="12"/>
@@ -4473,10 +4525,10 @@
       <c r="Q36" s="14"/>
       <c r="R36" s="14"/>
       <c r="S36" s="14"/>
-      <c r="T36" s="58"/>
+      <c r="T36" s="57"/>
       <c r="U36" s="14"/>
       <c r="V36" s="14"/>
-      <c r="W36" s="47"/>
+      <c r="W36" s="46"/>
       <c r="X36" s="14"/>
       <c r="Y36" s="14"/>
       <c r="Z36" s="17"/>
@@ -4499,14 +4551,14 @@
       <c r="AQ36" s="24"/>
       <c r="AR36" s="25"/>
     </row>
-    <row r="37" spans="1:45" s="37" customFormat="1">
+    <row r="37" spans="1:45" s="36" customFormat="1">
       <c r="A37" s="12" t="s">
         <v>47</v>
       </c>
       <c r="B37" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="127">
+      <c r="C37" s="125">
         <v>1.4</v>
       </c>
       <c r="D37" s="12"/>
@@ -4525,10 +4577,10 @@
       <c r="Q37" s="14"/>
       <c r="R37" s="14"/>
       <c r="S37" s="14"/>
-      <c r="T37" s="58"/>
+      <c r="T37" s="57"/>
       <c r="U37" s="14"/>
       <c r="V37" s="14"/>
-      <c r="W37" s="47"/>
+      <c r="W37" s="46"/>
       <c r="X37" s="14"/>
       <c r="Y37" s="14"/>
       <c r="Z37" s="17"/>
@@ -4551,14 +4603,14 @@
       <c r="AQ37" s="24"/>
       <c r="AR37" s="25"/>
     </row>
-    <row r="38" spans="1:45" s="37" customFormat="1">
-      <c r="A38" s="49" t="s">
+    <row r="38" spans="1:45" s="36" customFormat="1">
+      <c r="A38" s="48" t="s">
         <v>49</v>
       </c>
       <c r="B38" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="125" t="s">
+      <c r="C38" s="123" t="s">
         <v>51</v>
       </c>
       <c r="D38" s="12"/>
@@ -4577,10 +4629,10 @@
       <c r="Q38" s="14"/>
       <c r="R38" s="14"/>
       <c r="S38" s="14"/>
-      <c r="T38" s="58"/>
+      <c r="T38" s="57"/>
       <c r="U38" s="14"/>
       <c r="V38" s="14"/>
-      <c r="W38" s="47"/>
+      <c r="W38" s="46"/>
       <c r="X38" s="14"/>
       <c r="Y38" s="14"/>
       <c r="Z38" s="21"/>
@@ -4603,64 +4655,64 @@
       <c r="AQ38" s="24"/>
       <c r="AR38" s="25"/>
     </row>
-    <row r="39" spans="1:45" s="72" customFormat="1">
-      <c r="A39" s="163" t="s">
+    <row r="39" spans="1:45" s="71" customFormat="1">
+      <c r="A39" s="161" t="s">
         <v>52</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="129" t="s">
+      <c r="C39" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="64"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="64"/>
-      <c r="I39" s="64"/>
-      <c r="J39" s="64"/>
-      <c r="K39" s="64"/>
-      <c r="L39" s="64"/>
-      <c r="M39" s="64"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="64"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="64"/>
-      <c r="R39" s="64"/>
-      <c r="S39" s="64"/>
-      <c r="T39" s="64"/>
-      <c r="U39" s="64"/>
-      <c r="V39" s="64"/>
-      <c r="W39" s="67"/>
-      <c r="X39" s="64"/>
-      <c r="Y39" s="64"/>
-      <c r="Z39" s="68"/>
-      <c r="AA39" s="69"/>
-      <c r="AB39" s="69"/>
-      <c r="AC39" s="69"/>
-      <c r="AD39" s="69"/>
-      <c r="AE39" s="69"/>
-      <c r="AF39" s="69"/>
-      <c r="AG39" s="69"/>
-      <c r="AH39" s="69"/>
-      <c r="AI39" s="69"/>
-      <c r="AJ39" s="69"/>
-      <c r="AK39" s="69"/>
-      <c r="AL39" s="69"/>
-      <c r="AM39" s="69"/>
-      <c r="AN39" s="69"/>
-      <c r="AO39" s="69"/>
-      <c r="AP39" s="70"/>
-      <c r="AQ39" s="64"/>
-      <c r="AR39" s="71"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="64"/>
+      <c r="F39" s="63"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="63"/>
+      <c r="T39" s="63"/>
+      <c r="U39" s="63"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="63"/>
+      <c r="Y39" s="63"/>
+      <c r="Z39" s="67"/>
+      <c r="AA39" s="68"/>
+      <c r="AB39" s="68"/>
+      <c r="AC39" s="68"/>
+      <c r="AD39" s="68"/>
+      <c r="AE39" s="68"/>
+      <c r="AF39" s="68"/>
+      <c r="AG39" s="68"/>
+      <c r="AH39" s="68"/>
+      <c r="AI39" s="68"/>
+      <c r="AJ39" s="68"/>
+      <c r="AK39" s="68"/>
+      <c r="AL39" s="68"/>
+      <c r="AM39" s="68"/>
+      <c r="AN39" s="68"/>
+      <c r="AO39" s="68"/>
+      <c r="AP39" s="69"/>
+      <c r="AQ39" s="63"/>
+      <c r="AR39" s="70"/>
     </row>
     <row r="40" spans="1:45" s="3" customFormat="1">
-      <c r="A40" s="164"/>
+      <c r="A40" s="162"/>
       <c r="B40" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="127" t="s">
+      <c r="C40" s="125" t="s">
         <v>59</v>
       </c>
       <c r="D40" s="12"/>
@@ -4682,7 +4734,7 @@
       <c r="T40" s="14"/>
       <c r="U40" s="14"/>
       <c r="V40" s="14"/>
-      <c r="W40" s="45"/>
+      <c r="W40" s="44"/>
       <c r="X40" s="14"/>
       <c r="Y40" s="14"/>
       <c r="Z40" s="17"/>
@@ -4706,11 +4758,11 @@
       <c r="AR40" s="25"/>
     </row>
     <row r="41" spans="1:45" s="3" customFormat="1">
-      <c r="A41" s="165"/>
+      <c r="A41" s="163"/>
       <c r="B41" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C41" s="127" t="s">
+      <c r="C41" s="125" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="12"/>
@@ -4732,7 +4784,7 @@
       <c r="T41" s="14"/>
       <c r="U41" s="14"/>
       <c r="V41" s="14"/>
-      <c r="W41" s="45"/>
+      <c r="W41" s="44"/>
       <c r="X41" s="14"/>
       <c r="Y41" s="14"/>
       <c r="Z41" s="17"/>
@@ -4762,7 +4814,7 @@
       <c r="B42" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="127">
+      <c r="C42" s="125">
         <v>3</v>
       </c>
       <c r="D42" s="12"/>
@@ -4784,7 +4836,7 @@
       <c r="T42" s="14"/>
       <c r="U42" s="14"/>
       <c r="V42" s="14"/>
-      <c r="W42" s="45"/>
+      <c r="W42" s="44"/>
       <c r="X42" s="14"/>
       <c r="Y42" s="14"/>
       <c r="Z42" s="17"/>
@@ -4808,13 +4860,13 @@
       <c r="AR42" s="25"/>
     </row>
     <row r="43" spans="1:45" s="3" customFormat="1">
-      <c r="A43" s="155" t="s">
+      <c r="A43" s="153" t="s">
         <v>60</v>
       </c>
       <c r="B43" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="C43" s="127" t="s">
+      <c r="C43" s="125" t="s">
         <v>62</v>
       </c>
       <c r="D43" s="12"/>
@@ -4836,7 +4888,7 @@
       <c r="T43" s="14"/>
       <c r="U43" s="14"/>
       <c r="V43" s="14"/>
-      <c r="W43" s="45"/>
+      <c r="W43" s="44"/>
       <c r="X43" s="14"/>
       <c r="Y43" s="14"/>
       <c r="Z43" s="17"/>
@@ -4860,14 +4912,14 @@
       <c r="AR43" s="25"/>
     </row>
     <row r="44" spans="1:45" s="3" customFormat="1">
-      <c r="A44" s="166"/>
+      <c r="A44" s="164"/>
       <c r="B44" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="127" t="s">
+      <c r="C44" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="115"/>
+      <c r="D44" s="114"/>
       <c r="E44" s="28"/>
       <c r="F44" s="14"/>
       <c r="G44" s="25"/>
@@ -4886,7 +4938,7 @@
       <c r="T44" s="25"/>
       <c r="U44" s="25"/>
       <c r="V44" s="25"/>
-      <c r="W44" s="45"/>
+      <c r="W44" s="44"/>
       <c r="X44" s="14"/>
       <c r="Y44" s="14"/>
       <c r="Z44" s="26"/>
@@ -4910,14 +4962,14 @@
       <c r="AR44" s="25"/>
     </row>
     <row r="45" spans="1:45" s="3" customFormat="1">
-      <c r="A45" s="166"/>
+      <c r="A45" s="164"/>
       <c r="B45" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="127" t="s">
+      <c r="C45" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="115"/>
+      <c r="D45" s="114"/>
       <c r="E45" s="28"/>
       <c r="F45" s="14"/>
       <c r="G45" s="25"/>
@@ -4936,7 +4988,7 @@
       <c r="T45" s="25"/>
       <c r="U45" s="25"/>
       <c r="V45" s="25"/>
-      <c r="W45" s="45"/>
+      <c r="W45" s="44"/>
       <c r="X45" s="14"/>
       <c r="Y45" s="14"/>
       <c r="Z45" s="26"/>
@@ -4960,14 +5012,14 @@
       <c r="AR45" s="25"/>
     </row>
     <row r="46" spans="1:45" s="3" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A46" s="166"/>
-      <c r="B46" s="115" t="s">
+      <c r="A46" s="164"/>
+      <c r="B46" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="127" t="s">
+      <c r="C46" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="D46" s="115"/>
+      <c r="D46" s="114"/>
       <c r="E46" s="28"/>
       <c r="F46" s="14"/>
       <c r="G46" s="25"/>
@@ -4986,7 +5038,7 @@
       <c r="T46" s="25"/>
       <c r="U46" s="25"/>
       <c r="V46" s="25"/>
-      <c r="W46" s="45"/>
+      <c r="W46" s="44"/>
       <c r="X46" s="14"/>
       <c r="Y46" s="14"/>
       <c r="Z46" s="26"/>
@@ -5010,15 +5062,15 @@
       <c r="AR46" s="25"/>
     </row>
     <row r="47" spans="1:45" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A47" s="156"/>
+      <c r="A47" s="154"/>
       <c r="B47" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="127" t="s">
+      <c r="C47" s="125" t="s">
         <v>62</v>
       </c>
-      <c r="D47" s="115"/>
-      <c r="E47" s="73"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="72"/>
       <c r="F47" s="14"/>
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
@@ -5033,10 +5085,10 @@
       <c r="Q47" s="25"/>
       <c r="R47" s="14"/>
       <c r="S47" s="25"/>
-      <c r="T47" s="74"/>
+      <c r="T47" s="73"/>
       <c r="U47" s="25"/>
       <c r="V47" s="25"/>
-      <c r="W47" s="45"/>
+      <c r="W47" s="44"/>
       <c r="X47" s="14"/>
       <c r="Y47" s="14"/>
       <c r="Z47" s="26"/>
@@ -5057,8 +5109,8 @@
       <c r="AO47" s="18"/>
       <c r="AP47" s="16"/>
       <c r="AQ47" s="14"/>
-      <c r="AR47" s="61"/>
-      <c r="AS47" s="75"/>
+      <c r="AR47" s="60"/>
+      <c r="AS47" s="74"/>
     </row>
     <row r="48" spans="1:45" s="3" customFormat="1" ht="24" customHeight="1">
       <c r="A48" s="23" t="s">
@@ -5067,10 +5119,10 @@
       <c r="B48" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C48" s="125">
+      <c r="C48" s="123">
         <v>4.4000000000000004</v>
       </c>
-      <c r="D48" s="115"/>
+      <c r="D48" s="114"/>
       <c r="E48" s="28"/>
       <c r="F48" s="14"/>
       <c r="G48" s="25"/>
@@ -5089,7 +5141,7 @@
       <c r="T48" s="25"/>
       <c r="U48" s="25"/>
       <c r="V48" s="25"/>
-      <c r="W48" s="45"/>
+      <c r="W48" s="44"/>
       <c r="X48" s="14"/>
       <c r="Y48" s="14"/>
       <c r="Z48" s="26"/>
@@ -5119,10 +5171,10 @@
       <c r="B49" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C49" s="125" t="s">
+      <c r="C49" s="123" t="s">
         <v>70</v>
       </c>
-      <c r="D49" s="115"/>
+      <c r="D49" s="114"/>
       <c r="E49" s="13"/>
       <c r="F49" s="14"/>
       <c r="G49" s="25"/>
@@ -5138,10 +5190,10 @@
       <c r="Q49" s="25"/>
       <c r="R49" s="14"/>
       <c r="S49" s="25"/>
-      <c r="T49" s="74"/>
+      <c r="T49" s="73"/>
       <c r="U49" s="25"/>
       <c r="V49" s="25"/>
-      <c r="W49" s="45"/>
+      <c r="W49" s="44"/>
       <c r="X49" s="14"/>
       <c r="Y49" s="14"/>
       <c r="Z49" s="26"/>
@@ -5171,10 +5223,10 @@
       <c r="B50" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="125">
+      <c r="C50" s="123">
         <v>1.1499999999999999</v>
       </c>
-      <c r="D50" s="115"/>
+      <c r="D50" s="114"/>
       <c r="E50" s="28"/>
       <c r="F50" s="14"/>
       <c r="G50" s="25"/>
@@ -5193,7 +5245,7 @@
       <c r="T50" s="25"/>
       <c r="U50" s="25"/>
       <c r="V50" s="25"/>
-      <c r="W50" s="45"/>
+      <c r="W50" s="44"/>
       <c r="X50" s="14"/>
       <c r="Y50" s="14"/>
       <c r="Z50" s="26"/>
@@ -5223,7 +5275,7 @@
       <c r="B51" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="128" t="s">
+      <c r="C51" s="126" t="s">
         <v>74</v>
       </c>
       <c r="D51" s="19"/>
@@ -5242,10 +5294,10 @@
       <c r="Q51" s="15"/>
       <c r="R51" s="14"/>
       <c r="S51" s="21"/>
-      <c r="T51" s="48"/>
+      <c r="T51" s="47"/>
       <c r="U51" s="21"/>
       <c r="V51" s="21"/>
-      <c r="W51" s="45"/>
+      <c r="W51" s="44"/>
       <c r="X51" s="14"/>
       <c r="Y51" s="14"/>
       <c r="Z51" s="22"/>
@@ -5275,7 +5327,7 @@
       <c r="B52" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C52" s="125" t="s">
+      <c r="C52" s="123" t="s">
         <v>77</v>
       </c>
       <c r="D52" s="19"/>
@@ -5294,10 +5346,10 @@
       <c r="Q52" s="15"/>
       <c r="R52" s="14"/>
       <c r="S52" s="21"/>
-      <c r="T52" s="48"/>
+      <c r="T52" s="47"/>
       <c r="U52" s="21"/>
       <c r="V52" s="21"/>
-      <c r="W52" s="45"/>
+      <c r="W52" s="44"/>
       <c r="X52" s="14"/>
       <c r="Y52" s="14"/>
       <c r="Z52" s="22"/>
@@ -5327,7 +5379,7 @@
       <c r="B53" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="C53" s="125" t="s">
+      <c r="C53" s="123" t="s">
         <v>80</v>
       </c>
       <c r="D53" s="12"/>
@@ -5349,7 +5401,7 @@
       <c r="T53" s="14"/>
       <c r="U53" s="14"/>
       <c r="V53" s="14"/>
-      <c r="W53" s="45"/>
+      <c r="W53" s="44"/>
       <c r="X53" s="14"/>
       <c r="Y53" s="14"/>
       <c r="Z53" s="22"/>
@@ -5373,13 +5425,13 @@
       <c r="AR53" s="25"/>
     </row>
     <row r="54" spans="1:44" s="3" customFormat="1">
-      <c r="A54" s="153" t="s">
+      <c r="A54" s="151" t="s">
         <v>81</v>
       </c>
-      <c r="B54" s="116" t="s">
+      <c r="B54" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="C54" s="125" t="s">
+      <c r="C54" s="123" t="s">
         <v>83</v>
       </c>
       <c r="D54" s="19"/>
@@ -5398,10 +5450,10 @@
       <c r="Q54" s="15"/>
       <c r="R54" s="14"/>
       <c r="S54" s="21"/>
-      <c r="T54" s="48"/>
+      <c r="T54" s="47"/>
       <c r="U54" s="21"/>
       <c r="V54" s="21"/>
-      <c r="W54" s="45"/>
+      <c r="W54" s="44"/>
       <c r="X54" s="14"/>
       <c r="Y54" s="14"/>
       <c r="Z54" s="22"/>
@@ -5425,11 +5477,11 @@
       <c r="AR54" s="25"/>
     </row>
     <row r="55" spans="1:44" s="3" customFormat="1">
-      <c r="A55" s="167"/>
-      <c r="B55" s="116" t="s">
+      <c r="A55" s="165"/>
+      <c r="B55" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="C55" s="125" t="s">
+      <c r="C55" s="123" t="s">
         <v>83</v>
       </c>
       <c r="D55" s="19"/>
@@ -5451,7 +5503,7 @@
       <c r="T55" s="15"/>
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
-      <c r="W55" s="45"/>
+      <c r="W55" s="44"/>
       <c r="X55" s="14"/>
       <c r="Y55" s="14"/>
       <c r="Z55" s="22"/>
@@ -5475,11 +5527,11 @@
       <c r="AR55" s="25"/>
     </row>
     <row r="56" spans="1:44" s="3" customFormat="1">
-      <c r="A56" s="154"/>
+      <c r="A56" s="152"/>
       <c r="B56" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="C56" s="128" t="s">
+      <c r="C56" s="126" t="s">
         <v>83</v>
       </c>
       <c r="D56" s="19"/>
@@ -5498,10 +5550,10 @@
       <c r="Q56" s="15"/>
       <c r="R56" s="15"/>
       <c r="S56" s="21"/>
-      <c r="T56" s="48"/>
+      <c r="T56" s="47"/>
       <c r="U56" s="21"/>
       <c r="V56" s="21"/>
-      <c r="W56" s="45"/>
+      <c r="W56" s="44"/>
       <c r="X56" s="14"/>
       <c r="Y56" s="14"/>
       <c r="Z56" s="22"/>
@@ -5531,7 +5583,7 @@
       <c r="B57" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="C57" s="128">
+      <c r="C57" s="126">
         <v>1.46</v>
       </c>
       <c r="D57" s="19"/>
@@ -5553,7 +5605,7 @@
       <c r="T57" s="21"/>
       <c r="U57" s="21"/>
       <c r="V57" s="21"/>
-      <c r="W57" s="45"/>
+      <c r="W57" s="44"/>
       <c r="X57" s="14"/>
       <c r="Y57" s="14"/>
       <c r="Z57" s="22"/>
@@ -5572,7 +5624,7 @@
       <c r="AM57" s="18"/>
       <c r="AN57" s="18"/>
       <c r="AO57" s="18"/>
-      <c r="AP57" s="48"/>
+      <c r="AP57" s="47"/>
       <c r="AQ57" s="14"/>
       <c r="AR57" s="25"/>
     </row>
@@ -5583,11 +5635,11 @@
       <c r="B58" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C58" s="125" t="s">
+      <c r="C58" s="123" t="s">
         <v>90</v>
       </c>
       <c r="D58" s="19"/>
-      <c r="E58" s="76"/>
+      <c r="E58" s="75"/>
       <c r="F58" s="15"/>
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
@@ -5602,10 +5654,10 @@
       <c r="Q58" s="15"/>
       <c r="R58" s="14"/>
       <c r="S58" s="21"/>
-      <c r="T58" s="48"/>
+      <c r="T58" s="47"/>
       <c r="U58" s="21"/>
       <c r="V58" s="21"/>
-      <c r="W58" s="45"/>
+      <c r="W58" s="44"/>
       <c r="X58" s="14"/>
       <c r="Y58" s="14"/>
       <c r="Z58" s="22"/>
@@ -5624,7 +5676,7 @@
       <c r="AM58" s="18"/>
       <c r="AN58" s="18"/>
       <c r="AO58" s="18"/>
-      <c r="AP58" s="48"/>
+      <c r="AP58" s="47"/>
       <c r="AQ58" s="14"/>
       <c r="AR58" s="25"/>
     </row>
@@ -5635,7 +5687,7 @@
       <c r="B59" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C59" s="125" t="s">
+      <c r="C59" s="123" t="s">
         <v>93</v>
       </c>
       <c r="D59" s="19"/>
@@ -5657,7 +5709,7 @@
       <c r="T59" s="21"/>
       <c r="U59" s="21"/>
       <c r="V59" s="21"/>
-      <c r="W59" s="45"/>
+      <c r="W59" s="44"/>
       <c r="X59" s="14"/>
       <c r="Y59" s="14"/>
       <c r="Z59" s="22"/>
@@ -5687,10 +5739,10 @@
       <c r="B60" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="128" t="s">
+      <c r="C60" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="D60" s="140"/>
+      <c r="D60" s="138"/>
       <c r="E60" s="13"/>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
@@ -5709,7 +5761,7 @@
       <c r="T60" s="22"/>
       <c r="U60" s="22"/>
       <c r="V60" s="22"/>
-      <c r="W60" s="45"/>
+      <c r="W60" s="44"/>
       <c r="X60" s="14"/>
       <c r="Y60" s="14"/>
       <c r="Z60" s="17"/>
@@ -5729,7 +5781,7 @@
       <c r="AN60" s="18"/>
       <c r="AO60" s="18"/>
       <c r="AP60" s="22"/>
-      <c r="AQ60" s="77"/>
+      <c r="AQ60" s="76"/>
       <c r="AR60" s="25"/>
     </row>
     <row r="61" spans="1:44" s="3" customFormat="1">
@@ -5739,7 +5791,7 @@
       <c r="B61" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C61" s="130" t="s">
+      <c r="C61" s="128" t="s">
         <v>98</v>
       </c>
       <c r="D61" s="33"/>
@@ -5761,7 +5813,7 @@
       <c r="T61" s="32"/>
       <c r="U61" s="31"/>
       <c r="V61" s="31"/>
-      <c r="W61" s="45"/>
+      <c r="W61" s="44"/>
       <c r="X61" s="14"/>
       <c r="Y61" s="14"/>
       <c r="Z61" s="22"/>
@@ -5791,7 +5843,7 @@
       <c r="B62" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="C62" s="130" t="s">
+      <c r="C62" s="128" t="s">
         <v>103</v>
       </c>
       <c r="D62" s="33"/>
@@ -5813,7 +5865,7 @@
       <c r="T62" s="31"/>
       <c r="U62" s="31"/>
       <c r="V62" s="31"/>
-      <c r="W62" s="45"/>
+      <c r="W62" s="44"/>
       <c r="X62" s="14"/>
       <c r="Y62" s="14"/>
       <c r="Z62" s="22"/>
@@ -5837,13 +5889,13 @@
       <c r="AR62" s="25"/>
     </row>
     <row r="63" spans="1:44" s="3" customFormat="1">
-      <c r="A63" s="41" t="s">
+      <c r="A63" s="40" t="s">
         <v>100</v>
       </c>
       <c r="B63" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C63" s="125" t="s">
+      <c r="C63" s="123" t="s">
         <v>102</v>
       </c>
       <c r="D63" s="19"/>
@@ -5863,12 +5915,12 @@
       <c r="R63" s="15"/>
       <c r="S63" s="21"/>
       <c r="T63" s="16"/>
-      <c r="U63" s="43"/>
+      <c r="U63" s="42"/>
       <c r="V63" s="21"/>
-      <c r="W63" s="45"/>
+      <c r="W63" s="44"/>
       <c r="X63" s="14"/>
       <c r="Y63" s="14"/>
-      <c r="Z63" s="42"/>
+      <c r="Z63" s="41"/>
       <c r="AA63" s="18"/>
       <c r="AB63" s="18"/>
       <c r="AC63" s="18"/>
@@ -5884,22 +5936,22 @@
       <c r="AM63" s="18"/>
       <c r="AN63" s="18"/>
       <c r="AO63" s="18"/>
-      <c r="AP63" s="43"/>
+      <c r="AP63" s="42"/>
       <c r="AQ63" s="14"/>
       <c r="AR63" s="25"/>
     </row>
     <row r="64" spans="1:44" s="3" customFormat="1" ht="22.5">
-      <c r="A64" s="41" t="s">
+      <c r="A64" s="40" t="s">
         <v>104</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C64" s="125">
+      <c r="C64" s="123">
         <v>1590792</v>
       </c>
       <c r="D64" s="19"/>
-      <c r="E64" s="50"/>
+      <c r="E64" s="49"/>
       <c r="F64" s="15"/>
       <c r="G64" s="15"/>
       <c r="H64" s="15"/>
@@ -5915,12 +5967,12 @@
       <c r="R64" s="15"/>
       <c r="S64" s="21"/>
       <c r="T64" s="25"/>
-      <c r="U64" s="43"/>
+      <c r="U64" s="42"/>
       <c r="V64" s="21"/>
-      <c r="W64" s="51"/>
+      <c r="W64" s="50"/>
       <c r="X64" s="14"/>
       <c r="Y64" s="14"/>
-      <c r="Z64" s="42"/>
+      <c r="Z64" s="41"/>
       <c r="AA64" s="18"/>
       <c r="AB64" s="18"/>
       <c r="AC64" s="18"/>
@@ -5936,18 +5988,18 @@
       <c r="AM64" s="18"/>
       <c r="AN64" s="18"/>
       <c r="AO64" s="18"/>
-      <c r="AP64" s="43"/>
+      <c r="AP64" s="42"/>
       <c r="AQ64" s="14"/>
       <c r="AR64" s="25"/>
     </row>
-    <row r="65" spans="1:45" s="38" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A65" s="153" t="s">
+    <row r="65" spans="1:45" s="37" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A65" s="151" t="s">
         <v>106</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C65" s="137" t="s">
+      <c r="C65" s="135" t="s">
         <v>102</v>
       </c>
       <c r="D65" s="19"/>
@@ -5966,10 +6018,10 @@
       <c r="Q65" s="15"/>
       <c r="R65" s="15"/>
       <c r="S65" s="21"/>
-      <c r="T65" s="48"/>
+      <c r="T65" s="47"/>
       <c r="U65" s="21"/>
       <c r="V65" s="21"/>
-      <c r="W65" s="45"/>
+      <c r="W65" s="44"/>
       <c r="X65" s="14"/>
       <c r="Y65" s="14"/>
       <c r="Z65" s="17"/>
@@ -5993,11 +6045,11 @@
       <c r="AR65" s="25"/>
     </row>
     <row r="66" spans="1:45" s="3" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A66" s="154"/>
+      <c r="A66" s="152"/>
       <c r="B66" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="C66" s="128">
+      <c r="C66" s="126">
         <v>2.81</v>
       </c>
       <c r="D66" s="12"/>
@@ -6019,7 +6071,7 @@
       <c r="T66" s="14"/>
       <c r="U66" s="14"/>
       <c r="V66" s="14"/>
-      <c r="W66" s="45"/>
+      <c r="W66" s="44"/>
       <c r="X66" s="14"/>
       <c r="Y66" s="14"/>
       <c r="Z66" s="17"/>
@@ -6040,8 +6092,8 @@
       <c r="AO66" s="18"/>
       <c r="AP66" s="14"/>
       <c r="AQ66" s="14"/>
-      <c r="AR66" s="61"/>
-      <c r="AS66" s="75"/>
+      <c r="AR66" s="60"/>
+      <c r="AS66" s="74"/>
     </row>
     <row r="67" spans="1:45" s="3" customFormat="1">
       <c r="A67" s="12" t="s">
@@ -6050,7 +6102,7 @@
       <c r="B67" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="C67" s="127" t="s">
+      <c r="C67" s="125" t="s">
         <v>111</v>
       </c>
       <c r="D67" s="12"/>
@@ -6072,7 +6124,7 @@
       <c r="T67" s="14"/>
       <c r="U67" s="14"/>
       <c r="V67" s="14"/>
-      <c r="W67" s="45"/>
+      <c r="W67" s="44"/>
       <c r="X67" s="14"/>
       <c r="Y67" s="14"/>
       <c r="Z67" s="24"/>
@@ -6096,16 +6148,16 @@
       <c r="AR67" s="25"/>
     </row>
     <row r="68" spans="1:45" s="3" customFormat="1">
-      <c r="A68" s="155" t="s">
+      <c r="A68" s="153" t="s">
         <v>112</v>
       </c>
       <c r="B68" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="C68" s="128" t="s">
+      <c r="C68" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="D68" s="140"/>
+      <c r="D68" s="138"/>
       <c r="E68" s="13"/>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
@@ -6121,10 +6173,10 @@
       <c r="Q68" s="18"/>
       <c r="R68" s="18"/>
       <c r="S68" s="22"/>
-      <c r="T68" s="57"/>
+      <c r="T68" s="56"/>
       <c r="U68" s="22"/>
       <c r="V68" s="22"/>
-      <c r="W68" s="45"/>
+      <c r="W68" s="44"/>
       <c r="X68" s="14"/>
       <c r="Y68" s="14"/>
       <c r="Z68" s="24"/>
@@ -6148,11 +6200,11 @@
       <c r="AR68" s="25"/>
     </row>
     <row r="69" spans="1:45" s="3" customFormat="1">
-      <c r="A69" s="156"/>
-      <c r="B69" s="117" t="s">
+      <c r="A69" s="154"/>
+      <c r="B69" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="C69" s="128" t="s">
+      <c r="C69" s="126" t="s">
         <v>114</v>
       </c>
       <c r="D69" s="12"/>
@@ -6174,7 +6226,7 @@
       <c r="T69" s="14"/>
       <c r="U69" s="14"/>
       <c r="V69" s="14"/>
-      <c r="W69" s="45"/>
+      <c r="W69" s="44"/>
       <c r="X69" s="14"/>
       <c r="Y69" s="14"/>
       <c r="Z69" s="24"/>
@@ -6201,14 +6253,14 @@
       <c r="A70" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="B70" s="117" t="s">
+      <c r="B70" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="C70" s="125">
+      <c r="C70" s="123">
         <v>1.1000000000000001</v>
       </c>
       <c r="D70" s="12"/>
-      <c r="E70" s="76"/>
+      <c r="E70" s="75"/>
       <c r="F70" s="14"/>
       <c r="G70" s="24"/>
       <c r="H70" s="14"/>
@@ -6226,7 +6278,7 @@
       <c r="T70" s="14"/>
       <c r="U70" s="14"/>
       <c r="V70" s="14"/>
-      <c r="W70" s="45"/>
+      <c r="W70" s="44"/>
       <c r="X70" s="14"/>
       <c r="Y70" s="14"/>
       <c r="Z70" s="24"/>
@@ -6256,7 +6308,7 @@
       <c r="B71" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="C71" s="127">
+      <c r="C71" s="125">
         <v>1.4</v>
       </c>
       <c r="D71" s="12"/>
@@ -6278,7 +6330,7 @@
       <c r="T71" s="14"/>
       <c r="U71" s="14"/>
       <c r="V71" s="14"/>
-      <c r="W71" s="45"/>
+      <c r="W71" s="44"/>
       <c r="X71" s="14"/>
       <c r="Y71" s="14"/>
       <c r="Z71" s="22"/>
@@ -6301,24 +6353,38 @@
       <c r="AQ71" s="14"/>
       <c r="AR71" s="25"/>
     </row>
-    <row r="72" spans="1:45" s="3" customFormat="1">
+    <row r="72" spans="1:45" s="3" customFormat="1" ht="38.25">
       <c r="A72" s="12" t="s">
         <v>117</v>
       </c>
       <c r="B72" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C72" s="125">
+      <c r="C72" s="123">
         <v>1.1000000000000001</v>
       </c>
       <c r="D72" s="12"/>
-      <c r="E72" s="34"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
+      <c r="E72" s="189" t="s">
+        <v>248</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="J72" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="K72" s="190">
+        <v>41857</v>
+      </c>
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
       <c r="N72" s="15"/>
@@ -6330,7 +6396,7 @@
       <c r="T72" s="14"/>
       <c r="U72" s="14"/>
       <c r="V72" s="14"/>
-      <c r="W72" s="45"/>
+      <c r="W72" s="44"/>
       <c r="X72" s="14"/>
       <c r="Y72" s="14"/>
       <c r="Z72" s="22"/>
@@ -6357,32 +6423,46 @@
       <c r="A73" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="B73" s="118" t="s">
+      <c r="B73" s="116" t="s">
         <v>120</v>
       </c>
-      <c r="C73" s="130">
-        <v>1</v>
-      </c>
-      <c r="D73" s="12"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="14"/>
+      <c r="C73" s="126">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D73" s="19"/>
+      <c r="E73" s="54" t="s">
+        <v>244</v>
+      </c>
+      <c r="F73" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G73" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="H73" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I73" s="172" t="s">
+        <v>246</v>
+      </c>
+      <c r="J73" s="187" t="s">
+        <v>247</v>
+      </c>
+      <c r="K73" s="188">
+        <v>39087</v>
+      </c>
+      <c r="L73" s="15"/>
       <c r="M73" s="14"/>
       <c r="N73" s="15"/>
-      <c r="O73" s="14"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="25"/>
-      <c r="R73" s="25"/>
-      <c r="S73" s="25"/>
+      <c r="O73" s="15"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="15"/>
+      <c r="R73" s="15"/>
+      <c r="S73" s="21"/>
       <c r="T73" s="14"/>
-      <c r="U73" s="14"/>
-      <c r="V73" s="14"/>
-      <c r="W73" s="45"/>
+      <c r="U73" s="21"/>
+      <c r="V73" s="21"/>
+      <c r="W73" s="44"/>
       <c r="X73" s="14"/>
       <c r="Y73" s="14"/>
       <c r="Z73" s="22"/>
@@ -6401,28 +6481,40 @@
       <c r="AM73" s="18"/>
       <c r="AN73" s="18"/>
       <c r="AO73" s="18"/>
-      <c r="AP73" s="24"/>
+      <c r="AP73" s="21"/>
       <c r="AQ73" s="14"/>
       <c r="AR73" s="25"/>
     </row>
     <row r="74" spans="1:45" s="3" customFormat="1">
-      <c r="A74" s="23" t="s">
+      <c r="A74" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B74" s="117" t="s">
+      <c r="B74" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="C74" s="128">
-        <v>1.1000000000000001</v>
+      <c r="C74" s="129" t="s">
+        <v>123</v>
       </c>
       <c r="D74" s="19"/>
-      <c r="E74" s="13"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
+      <c r="E74" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="F74" s="43"/>
+      <c r="G74" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="H74" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I74" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="J74" s="187" t="s">
+        <v>243</v>
+      </c>
+      <c r="K74" s="188">
+        <v>41433</v>
+      </c>
       <c r="L74" s="15"/>
       <c r="M74" s="14"/>
       <c r="N74" s="15"/>
@@ -6434,7 +6526,7 @@
       <c r="T74" s="14"/>
       <c r="U74" s="21"/>
       <c r="V74" s="21"/>
-      <c r="W74" s="45"/>
+      <c r="W74" s="44"/>
       <c r="X74" s="14"/>
       <c r="Y74" s="14"/>
       <c r="Z74" s="22"/>
@@ -6459,22 +6551,36 @@
     </row>
     <row r="75" spans="1:45" s="3" customFormat="1">
       <c r="A75" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B75" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="C75" s="131" t="s">
+      <c r="B75" s="23" t="s">
         <v>125</v>
       </c>
+      <c r="C75" s="124">
+        <v>2</v>
+      </c>
       <c r="D75" s="19"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="15"/>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="15"/>
+      <c r="E75" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="F75" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="G75" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="H75" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I75" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="J75" s="187" t="s">
+        <v>240</v>
+      </c>
+      <c r="K75" s="188">
+        <v>39071</v>
+      </c>
       <c r="L75" s="15"/>
       <c r="M75" s="14"/>
       <c r="N75" s="15"/>
@@ -6486,7 +6592,7 @@
       <c r="T75" s="14"/>
       <c r="U75" s="21"/>
       <c r="V75" s="21"/>
-      <c r="W75" s="45"/>
+      <c r="W75" s="44"/>
       <c r="X75" s="14"/>
       <c r="Y75" s="14"/>
       <c r="Z75" s="22"/>
@@ -6505,43 +6611,59 @@
       <c r="AM75" s="18"/>
       <c r="AN75" s="18"/>
       <c r="AO75" s="18"/>
-      <c r="AP75" s="21"/>
+      <c r="AP75" s="47"/>
       <c r="AQ75" s="14"/>
       <c r="AR75" s="25"/>
     </row>
     <row r="76" spans="1:45" s="3" customFormat="1">
-      <c r="A76" s="27" t="s">
+      <c r="A76" s="158" t="s">
         <v>126</v>
       </c>
-      <c r="B76" s="23" t="s">
+      <c r="B76" s="158" t="s">
         <v>127</v>
       </c>
-      <c r="C76" s="126">
-        <v>2</v>
-      </c>
-      <c r="D76" s="19"/>
-      <c r="E76" s="13"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="15"/>
-      <c r="H76" s="15"/>
-      <c r="I76" s="15"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="15"/>
-      <c r="L76" s="15"/>
-      <c r="M76" s="14"/>
+      <c r="C76" s="178" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" s="115" t="s">
+        <v>234</v>
+      </c>
+      <c r="E76" s="175" t="s">
+        <v>230</v>
+      </c>
+      <c r="F76" s="153" t="s">
+        <v>231</v>
+      </c>
+      <c r="G76" s="155" t="s">
+        <v>182</v>
+      </c>
+      <c r="H76" s="155" t="s">
+        <v>11</v>
+      </c>
+      <c r="I76" s="155" t="s">
+        <v>232</v>
+      </c>
+      <c r="J76" s="181" t="s">
+        <v>233</v>
+      </c>
+      <c r="K76" s="184">
+        <v>42096</v>
+      </c>
+      <c r="L76" s="25"/>
+      <c r="M76" s="25"/>
       <c r="N76" s="15"/>
-      <c r="O76" s="15"/>
-      <c r="P76" s="15"/>
-      <c r="Q76" s="15"/>
-      <c r="R76" s="15"/>
-      <c r="S76" s="21"/>
-      <c r="T76" s="14"/>
-      <c r="U76" s="21"/>
-      <c r="V76" s="21"/>
-      <c r="W76" s="45"/>
+      <c r="O76" s="25"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="25"/>
+      <c r="R76" s="14"/>
+      <c r="S76" s="25"/>
+      <c r="T76" s="25"/>
+      <c r="U76" s="25"/>
+      <c r="V76" s="25"/>
+      <c r="W76" s="44"/>
       <c r="X76" s="14"/>
       <c r="Y76" s="14"/>
-      <c r="Z76" s="22"/>
+      <c r="Z76" s="26"/>
       <c r="AA76" s="18"/>
       <c r="AB76" s="18"/>
       <c r="AC76" s="18"/>
@@ -6557,42 +6679,24 @@
       <c r="AM76" s="18"/>
       <c r="AN76" s="18"/>
       <c r="AO76" s="18"/>
-      <c r="AP76" s="48"/>
+      <c r="AP76" s="47"/>
       <c r="AQ76" s="14"/>
       <c r="AR76" s="25"/>
     </row>
     <row r="77" spans="1:45" s="3" customFormat="1">
-      <c r="A77" s="160" t="s">
-        <v>128</v>
-      </c>
-      <c r="B77" s="160" t="s">
-        <v>129</v>
-      </c>
-      <c r="C77" s="180" t="s">
-        <v>130</v>
-      </c>
-      <c r="D77" s="116" t="s">
-        <v>236</v>
-      </c>
-      <c r="E77" s="177" t="s">
-        <v>232</v>
-      </c>
-      <c r="F77" s="155" t="s">
-        <v>233</v>
-      </c>
-      <c r="G77" s="157" t="s">
-        <v>184</v>
-      </c>
-      <c r="H77" s="157" t="s">
-        <v>11</v>
-      </c>
-      <c r="I77" s="157" t="s">
-        <v>234</v>
-      </c>
-      <c r="J77" s="183" t="s">
+      <c r="A77" s="159"/>
+      <c r="B77" s="159"/>
+      <c r="C77" s="179"/>
+      <c r="D77" s="115" t="s">
         <v>235</v>
       </c>
-      <c r="K77" s="25"/>
+      <c r="E77" s="176"/>
+      <c r="F77" s="164"/>
+      <c r="G77" s="156"/>
+      <c r="H77" s="156"/>
+      <c r="I77" s="156"/>
+      <c r="J77" s="182"/>
+      <c r="K77" s="185"/>
       <c r="L77" s="25"/>
       <c r="M77" s="25"/>
       <c r="N77" s="15"/>
@@ -6604,7 +6708,7 @@
       <c r="T77" s="25"/>
       <c r="U77" s="25"/>
       <c r="V77" s="25"/>
-      <c r="W77" s="45"/>
+      <c r="W77" s="44"/>
       <c r="X77" s="14"/>
       <c r="Y77" s="14"/>
       <c r="Z77" s="26"/>
@@ -6623,24 +6727,24 @@
       <c r="AM77" s="18"/>
       <c r="AN77" s="18"/>
       <c r="AO77" s="18"/>
-      <c r="AP77" s="48"/>
+      <c r="AP77" s="47"/>
       <c r="AQ77" s="14"/>
-      <c r="AR77" s="25"/>
-    </row>
-    <row r="78" spans="1:45" s="3" customFormat="1">
-      <c r="A78" s="161"/>
-      <c r="B78" s="161"/>
-      <c r="C78" s="181"/>
-      <c r="D78" s="116" t="s">
-        <v>237</v>
-      </c>
-      <c r="E78" s="178"/>
-      <c r="F78" s="166"/>
-      <c r="G78" s="158"/>
-      <c r="H78" s="158"/>
-      <c r="I78" s="158"/>
-      <c r="J78" s="184"/>
-      <c r="K78" s="176"/>
+      <c r="AR77" s="60"/>
+    </row>
+    <row r="78" spans="1:45" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A78" s="160"/>
+      <c r="B78" s="160"/>
+      <c r="C78" s="180"/>
+      <c r="D78" s="115" t="s">
+        <v>236</v>
+      </c>
+      <c r="E78" s="177"/>
+      <c r="F78" s="154"/>
+      <c r="G78" s="157"/>
+      <c r="H78" s="157"/>
+      <c r="I78" s="157"/>
+      <c r="J78" s="183"/>
+      <c r="K78" s="186"/>
       <c r="L78" s="25"/>
       <c r="M78" s="25"/>
       <c r="N78" s="15"/>
@@ -6652,7 +6756,7 @@
       <c r="T78" s="25"/>
       <c r="U78" s="25"/>
       <c r="V78" s="25"/>
-      <c r="W78" s="45"/>
+      <c r="W78" s="44"/>
       <c r="X78" s="14"/>
       <c r="Y78" s="14"/>
       <c r="Z78" s="26"/>
@@ -6671,164 +6775,180 @@
       <c r="AM78" s="18"/>
       <c r="AN78" s="18"/>
       <c r="AO78" s="18"/>
-      <c r="AP78" s="48"/>
+      <c r="AP78" s="47"/>
       <c r="AQ78" s="14"/>
-      <c r="AR78" s="61"/>
-    </row>
-    <row r="79" spans="1:45" s="3" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A79" s="162"/>
-      <c r="B79" s="162"/>
-      <c r="C79" s="182"/>
-      <c r="D79" s="116" t="s">
-        <v>238</v>
-      </c>
-      <c r="E79" s="179"/>
-      <c r="F79" s="156"/>
-      <c r="G79" s="159"/>
-      <c r="H79" s="159"/>
-      <c r="I79" s="159"/>
-      <c r="J79" s="185"/>
-      <c r="K79" s="176"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="25"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="25"/>
-      <c r="P79" s="14"/>
-      <c r="Q79" s="25"/>
-      <c r="R79" s="14"/>
-      <c r="S79" s="25"/>
-      <c r="T79" s="25"/>
-      <c r="U79" s="25"/>
-      <c r="V79" s="25"/>
-      <c r="W79" s="45"/>
+      <c r="AR78" s="60"/>
+    </row>
+    <row r="79" spans="1:45" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1">
+      <c r="A79" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B79" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C79" s="126">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D79" s="26"/>
+      <c r="E79" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F79" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I79" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="J79" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="K79" s="174">
+        <v>39247</v>
+      </c>
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="25"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="24"/>
+      <c r="Q79" s="24"/>
+      <c r="R79" s="24"/>
+      <c r="S79" s="41"/>
+      <c r="T79" s="14"/>
+      <c r="U79" s="41"/>
+      <c r="V79" s="41"/>
+      <c r="W79" s="77"/>
       <c r="X79" s="14"/>
       <c r="Y79" s="14"/>
-      <c r="Z79" s="26"/>
-      <c r="AA79" s="18"/>
-      <c r="AB79" s="18"/>
-      <c r="AC79" s="18"/>
-      <c r="AD79" s="18"/>
-      <c r="AE79" s="18"/>
-      <c r="AF79" s="18"/>
-      <c r="AG79" s="18"/>
-      <c r="AH79" s="18"/>
-      <c r="AI79" s="18"/>
-      <c r="AJ79" s="18"/>
-      <c r="AK79" s="18"/>
-      <c r="AL79" s="18"/>
-      <c r="AM79" s="18"/>
-      <c r="AN79" s="18"/>
-      <c r="AO79" s="18"/>
-      <c r="AP79" s="48"/>
+      <c r="Z79" s="24"/>
+      <c r="AA79" s="24"/>
+      <c r="AB79" s="24"/>
+      <c r="AC79" s="24"/>
+      <c r="AD79" s="24"/>
+      <c r="AE79" s="24"/>
+      <c r="AF79" s="24"/>
+      <c r="AG79" s="24"/>
+      <c r="AH79" s="24"/>
+      <c r="AI79" s="24"/>
+      <c r="AJ79" s="24"/>
+      <c r="AK79" s="24"/>
+      <c r="AL79" s="24"/>
+      <c r="AM79" s="24"/>
+      <c r="AN79" s="24"/>
+      <c r="AO79" s="24"/>
+      <c r="AP79" s="41"/>
       <c r="AQ79" s="14"/>
-      <c r="AR79" s="61"/>
-    </row>
-    <row r="80" spans="1:45" s="3" customFormat="1" ht="24" customHeight="1" thickBot="1">
-      <c r="A80" s="23" t="s">
+      <c r="AR79" s="60"/>
+      <c r="AS79" s="74"/>
+    </row>
+    <row r="80" spans="1:45" s="37" customFormat="1">
+      <c r="A80" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="B80" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="C80" s="128">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D80" s="26"/>
-      <c r="E80" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F80" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="G80" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="H80" s="14" t="s">
+      <c r="C80" s="130" t="s">
+        <v>134</v>
+      </c>
+      <c r="D80" s="19"/>
+      <c r="E80" s="45" t="s">
+        <v>224</v>
+      </c>
+      <c r="F80" s="18"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I80" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="J80" s="24" t="s">
-        <v>231</v>
-      </c>
-      <c r="K80" s="175">
-        <v>39247</v>
-      </c>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
-      <c r="N80" s="25"/>
-      <c r="O80" s="24"/>
-      <c r="P80" s="24"/>
-      <c r="Q80" s="24"/>
-      <c r="R80" s="24"/>
-      <c r="S80" s="42"/>
-      <c r="T80" s="14"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="K80" s="15"/>
+      <c r="L80" s="15"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="15"/>
+      <c r="O80" s="15"/>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="15"/>
+      <c r="R80" s="15"/>
+      <c r="S80" s="21"/>
+      <c r="T80" s="25"/>
       <c r="U80" s="42"/>
-      <c r="V80" s="42"/>
-      <c r="W80" s="78"/>
+      <c r="V80" s="21"/>
+      <c r="W80" s="50"/>
       <c r="X80" s="14"/>
       <c r="Y80" s="14"/>
-      <c r="Z80" s="24"/>
-      <c r="AA80" s="24"/>
-      <c r="AB80" s="24"/>
-      <c r="AC80" s="24"/>
-      <c r="AD80" s="24"/>
-      <c r="AE80" s="24"/>
-      <c r="AF80" s="24"/>
-      <c r="AG80" s="24"/>
-      <c r="AH80" s="24"/>
-      <c r="AI80" s="24"/>
-      <c r="AJ80" s="24"/>
-      <c r="AK80" s="24"/>
-      <c r="AL80" s="24"/>
-      <c r="AM80" s="24"/>
-      <c r="AN80" s="24"/>
-      <c r="AO80" s="24"/>
+      <c r="Z80" s="41"/>
+      <c r="AA80" s="18"/>
+      <c r="AB80" s="18"/>
+      <c r="AC80" s="18"/>
+      <c r="AD80" s="18"/>
+      <c r="AE80" s="18"/>
+      <c r="AF80" s="18"/>
+      <c r="AG80" s="18"/>
+      <c r="AH80" s="18"/>
+      <c r="AI80" s="18"/>
+      <c r="AJ80" s="18"/>
+      <c r="AK80" s="18"/>
+      <c r="AL80" s="18"/>
+      <c r="AM80" s="18"/>
+      <c r="AN80" s="18"/>
+      <c r="AO80" s="18"/>
       <c r="AP80" s="42"/>
       <c r="AQ80" s="14"/>
-      <c r="AR80" s="61"/>
-      <c r="AS80" s="75"/>
-    </row>
-    <row r="81" spans="1:48" s="38" customFormat="1">
-      <c r="A81" s="41" t="s">
+      <c r="AR80" s="25"/>
+    </row>
+    <row r="81" spans="1:48" s="37" customFormat="1" ht="22.5">
+      <c r="A81" s="158" t="s">
         <v>132</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="158" t="s">
+        <v>132</v>
+      </c>
+      <c r="C81" s="145" t="s">
         <v>133</v>
       </c>
-      <c r="C81" s="132" t="s">
-        <v>136</v>
-      </c>
-      <c r="D81" s="19"/>
-      <c r="E81" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="F81" s="18"/>
-      <c r="G81" s="15"/>
-      <c r="H81" s="30" t="s">
+      <c r="D81" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E81" s="148" t="s">
+        <v>213</v>
+      </c>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="153" t="s">
         <v>11</v>
       </c>
-      <c r="I81" s="15"/>
-      <c r="J81" s="30" t="s">
-        <v>227</v>
-      </c>
-      <c r="K81" s="15"/>
-      <c r="L81" s="15"/>
+      <c r="I81" s="153" t="s">
+        <v>221</v>
+      </c>
+      <c r="J81" s="153" t="s">
+        <v>222</v>
+      </c>
+      <c r="K81" s="153" t="s">
+        <v>223</v>
+      </c>
+      <c r="L81" s="14"/>
       <c r="M81" s="14"/>
       <c r="N81" s="15"/>
-      <c r="O81" s="15"/>
+      <c r="O81" s="14"/>
       <c r="P81" s="14"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="15"/>
-      <c r="S81" s="21"/>
-      <c r="T81" s="25"/>
-      <c r="U81" s="43"/>
-      <c r="V81" s="21"/>
-      <c r="W81" s="51"/>
+      <c r="Q81" s="14"/>
+      <c r="R81" s="17"/>
+      <c r="S81" s="14"/>
+      <c r="T81" s="14"/>
+      <c r="U81" s="14"/>
+      <c r="V81" s="14"/>
+      <c r="W81" s="44"/>
       <c r="X81" s="14"/>
       <c r="Y81" s="14"/>
-      <c r="Z81" s="42"/>
+      <c r="Z81" s="17"/>
       <c r="AA81" s="18"/>
       <c r="AB81" s="18"/>
       <c r="AC81" s="18"/>
@@ -6844,40 +6964,28 @@
       <c r="AM81" s="18"/>
       <c r="AN81" s="18"/>
       <c r="AO81" s="18"/>
-      <c r="AP81" s="43"/>
+      <c r="AP81" s="12"/>
       <c r="AQ81" s="14"/>
-      <c r="AR81" s="25"/>
-    </row>
-    <row r="82" spans="1:48" s="38" customFormat="1" ht="22.5">
-      <c r="A82" s="160" t="s">
-        <v>134</v>
-      </c>
-      <c r="B82" s="160" t="s">
-        <v>134</v>
-      </c>
-      <c r="C82" s="147" t="s">
-        <v>135</v>
-      </c>
+      <c r="AR81" s="60"/>
+      <c r="AS81" s="166"/>
+      <c r="AT81" s="167"/>
+      <c r="AU81" s="167"/>
+      <c r="AV81" s="167"/>
+    </row>
+    <row r="82" spans="1:48" s="37" customFormat="1" ht="22.5">
+      <c r="A82" s="159"/>
+      <c r="B82" s="159"/>
+      <c r="C82" s="146"/>
       <c r="D82" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="E82" s="150" t="s">
         <v>215</v>
       </c>
+      <c r="E82" s="149"/>
       <c r="F82" s="14"/>
       <c r="G82" s="14"/>
-      <c r="H82" s="155" t="s">
-        <v>11</v>
-      </c>
-      <c r="I82" s="155" t="s">
-        <v>223</v>
-      </c>
-      <c r="J82" s="155" t="s">
-        <v>224</v>
-      </c>
-      <c r="K82" s="155" t="s">
-        <v>225</v>
-      </c>
+      <c r="H82" s="164"/>
+      <c r="I82" s="164"/>
+      <c r="J82" s="164"/>
+      <c r="K82" s="164"/>
       <c r="L82" s="14"/>
       <c r="M82" s="14"/>
       <c r="N82" s="15"/>
@@ -6889,7 +6997,7 @@
       <c r="T82" s="14"/>
       <c r="U82" s="14"/>
       <c r="V82" s="14"/>
-      <c r="W82" s="45"/>
+      <c r="W82" s="44"/>
       <c r="X82" s="14"/>
       <c r="Y82" s="14"/>
       <c r="Z82" s="17"/>
@@ -6910,26 +7018,26 @@
       <c r="AO82" s="18"/>
       <c r="AP82" s="12"/>
       <c r="AQ82" s="14"/>
-      <c r="AR82" s="61"/>
-      <c r="AS82" s="168"/>
-      <c r="AT82" s="169"/>
-      <c r="AU82" s="169"/>
-      <c r="AV82" s="169"/>
-    </row>
-    <row r="83" spans="1:48" s="38" customFormat="1" ht="22.5">
-      <c r="A83" s="161"/>
-      <c r="B83" s="161"/>
-      <c r="C83" s="148"/>
+      <c r="AR82" s="60"/>
+      <c r="AS82" s="144"/>
+      <c r="AT82" s="110"/>
+      <c r="AU82" s="110"/>
+      <c r="AV82" s="110"/>
+    </row>
+    <row r="83" spans="1:48" s="37" customFormat="1" ht="22.5">
+      <c r="A83" s="159"/>
+      <c r="B83" s="159"/>
+      <c r="C83" s="146"/>
       <c r="D83" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="E83" s="151"/>
+        <v>216</v>
+      </c>
+      <c r="E83" s="149"/>
       <c r="F83" s="14"/>
       <c r="G83" s="14"/>
-      <c r="H83" s="166"/>
-      <c r="I83" s="166"/>
-      <c r="J83" s="166"/>
-      <c r="K83" s="166"/>
+      <c r="H83" s="164"/>
+      <c r="I83" s="164"/>
+      <c r="J83" s="164"/>
+      <c r="K83" s="164"/>
       <c r="L83" s="14"/>
       <c r="M83" s="14"/>
       <c r="N83" s="15"/>
@@ -6941,7 +7049,7 @@
       <c r="T83" s="14"/>
       <c r="U83" s="14"/>
       <c r="V83" s="14"/>
-      <c r="W83" s="45"/>
+      <c r="W83" s="44"/>
       <c r="X83" s="14"/>
       <c r="Y83" s="14"/>
       <c r="Z83" s="17"/>
@@ -6962,26 +7070,26 @@
       <c r="AO83" s="18"/>
       <c r="AP83" s="12"/>
       <c r="AQ83" s="14"/>
-      <c r="AR83" s="61"/>
-      <c r="AS83" s="146"/>
-      <c r="AT83" s="111"/>
-      <c r="AU83" s="111"/>
-      <c r="AV83" s="111"/>
-    </row>
-    <row r="84" spans="1:48" s="38" customFormat="1" ht="22.5">
-      <c r="A84" s="161"/>
-      <c r="B84" s="161"/>
-      <c r="C84" s="148"/>
+      <c r="AR83" s="60"/>
+      <c r="AS83" s="144"/>
+      <c r="AT83" s="110"/>
+      <c r="AU83" s="110"/>
+      <c r="AV83" s="110"/>
+    </row>
+    <row r="84" spans="1:48" s="37" customFormat="1" ht="22.5">
+      <c r="A84" s="159"/>
+      <c r="B84" s="159"/>
+      <c r="C84" s="146"/>
       <c r="D84" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E84" s="151"/>
+        <v>217</v>
+      </c>
+      <c r="E84" s="149"/>
       <c r="F84" s="14"/>
       <c r="G84" s="14"/>
-      <c r="H84" s="166"/>
-      <c r="I84" s="166"/>
-      <c r="J84" s="166"/>
-      <c r="K84" s="166"/>
+      <c r="H84" s="164"/>
+      <c r="I84" s="164"/>
+      <c r="J84" s="164"/>
+      <c r="K84" s="164"/>
       <c r="L84" s="14"/>
       <c r="M84" s="14"/>
       <c r="N84" s="15"/>
@@ -6993,7 +7101,7 @@
       <c r="T84" s="14"/>
       <c r="U84" s="14"/>
       <c r="V84" s="14"/>
-      <c r="W84" s="45"/>
+      <c r="W84" s="44"/>
       <c r="X84" s="14"/>
       <c r="Y84" s="14"/>
       <c r="Z84" s="17"/>
@@ -7014,26 +7122,26 @@
       <c r="AO84" s="18"/>
       <c r="AP84" s="12"/>
       <c r="AQ84" s="14"/>
-      <c r="AR84" s="61"/>
-      <c r="AS84" s="146"/>
-      <c r="AT84" s="111"/>
-      <c r="AU84" s="111"/>
-      <c r="AV84" s="111"/>
-    </row>
-    <row r="85" spans="1:48" s="38" customFormat="1" ht="22.5">
-      <c r="A85" s="161"/>
-      <c r="B85" s="161"/>
-      <c r="C85" s="148"/>
+      <c r="AR84" s="60"/>
+      <c r="AS84" s="144"/>
+      <c r="AT84" s="110"/>
+      <c r="AU84" s="110"/>
+      <c r="AV84" s="110"/>
+    </row>
+    <row r="85" spans="1:48" s="37" customFormat="1" ht="33.75">
+      <c r="A85" s="159"/>
+      <c r="B85" s="159"/>
+      <c r="C85" s="146"/>
       <c r="D85" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E85" s="151"/>
+        <v>218</v>
+      </c>
+      <c r="E85" s="149"/>
       <c r="F85" s="14"/>
       <c r="G85" s="14"/>
-      <c r="H85" s="166"/>
-      <c r="I85" s="166"/>
-      <c r="J85" s="166"/>
-      <c r="K85" s="166"/>
+      <c r="H85" s="164"/>
+      <c r="I85" s="164"/>
+      <c r="J85" s="164"/>
+      <c r="K85" s="164"/>
       <c r="L85" s="14"/>
       <c r="M85" s="14"/>
       <c r="N85" s="15"/>
@@ -7045,7 +7153,7 @@
       <c r="T85" s="14"/>
       <c r="U85" s="14"/>
       <c r="V85" s="14"/>
-      <c r="W85" s="45"/>
+      <c r="W85" s="44"/>
       <c r="X85" s="14"/>
       <c r="Y85" s="14"/>
       <c r="Z85" s="17"/>
@@ -7066,26 +7174,26 @@
       <c r="AO85" s="18"/>
       <c r="AP85" s="12"/>
       <c r="AQ85" s="14"/>
-      <c r="AR85" s="61"/>
-      <c r="AS85" s="146"/>
-      <c r="AT85" s="111"/>
-      <c r="AU85" s="111"/>
-      <c r="AV85" s="111"/>
-    </row>
-    <row r="86" spans="1:48" s="38" customFormat="1" ht="33.75">
-      <c r="A86" s="161"/>
-      <c r="B86" s="161"/>
-      <c r="C86" s="148"/>
+      <c r="AR85" s="60"/>
+      <c r="AS85" s="144"/>
+      <c r="AT85" s="110"/>
+      <c r="AU85" s="110"/>
+      <c r="AV85" s="110"/>
+    </row>
+    <row r="86" spans="1:48" s="37" customFormat="1" ht="22.5">
+      <c r="A86" s="159"/>
+      <c r="B86" s="159"/>
+      <c r="C86" s="146"/>
       <c r="D86" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="E86" s="151"/>
+        <v>219</v>
+      </c>
+      <c r="E86" s="149"/>
       <c r="F86" s="14"/>
       <c r="G86" s="14"/>
-      <c r="H86" s="166"/>
-      <c r="I86" s="166"/>
-      <c r="J86" s="166"/>
-      <c r="K86" s="166"/>
+      <c r="H86" s="164"/>
+      <c r="I86" s="164"/>
+      <c r="J86" s="164"/>
+      <c r="K86" s="164"/>
       <c r="L86" s="14"/>
       <c r="M86" s="14"/>
       <c r="N86" s="15"/>
@@ -7097,7 +7205,7 @@
       <c r="T86" s="14"/>
       <c r="U86" s="14"/>
       <c r="V86" s="14"/>
-      <c r="W86" s="45"/>
+      <c r="W86" s="44"/>
       <c r="X86" s="14"/>
       <c r="Y86" s="14"/>
       <c r="Z86" s="17"/>
@@ -7118,26 +7226,26 @@
       <c r="AO86" s="18"/>
       <c r="AP86" s="12"/>
       <c r="AQ86" s="14"/>
-      <c r="AR86" s="61"/>
-      <c r="AS86" s="146"/>
-      <c r="AT86" s="111"/>
-      <c r="AU86" s="111"/>
-      <c r="AV86" s="111"/>
-    </row>
-    <row r="87" spans="1:48" s="38" customFormat="1" ht="22.5">
-      <c r="A87" s="161"/>
-      <c r="B87" s="161"/>
-      <c r="C87" s="148"/>
+      <c r="AR86" s="60"/>
+      <c r="AS86" s="144"/>
+      <c r="AT86" s="110"/>
+      <c r="AU86" s="110"/>
+      <c r="AV86" s="110"/>
+    </row>
+    <row r="87" spans="1:48" s="37" customFormat="1" ht="22.5">
+      <c r="A87" s="160"/>
+      <c r="B87" s="160"/>
+      <c r="C87" s="147"/>
       <c r="D87" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="E87" s="151"/>
+        <v>220</v>
+      </c>
+      <c r="E87" s="150"/>
       <c r="F87" s="14"/>
       <c r="G87" s="14"/>
-      <c r="H87" s="166"/>
-      <c r="I87" s="166"/>
-      <c r="J87" s="166"/>
-      <c r="K87" s="166"/>
+      <c r="H87" s="154"/>
+      <c r="I87" s="154"/>
+      <c r="J87" s="154"/>
+      <c r="K87" s="154"/>
       <c r="L87" s="14"/>
       <c r="M87" s="14"/>
       <c r="N87" s="15"/>
@@ -7149,7 +7257,7 @@
       <c r="T87" s="14"/>
       <c r="U87" s="14"/>
       <c r="V87" s="14"/>
-      <c r="W87" s="45"/>
+      <c r="W87" s="44"/>
       <c r="X87" s="14"/>
       <c r="Y87" s="14"/>
       <c r="Z87" s="17"/>
@@ -7170,38 +7278,56 @@
       <c r="AO87" s="18"/>
       <c r="AP87" s="12"/>
       <c r="AQ87" s="14"/>
-      <c r="AR87" s="61"/>
-      <c r="AS87" s="146"/>
-      <c r="AT87" s="111"/>
-      <c r="AU87" s="111"/>
-      <c r="AV87" s="111"/>
-    </row>
-    <row r="88" spans="1:48" s="38" customFormat="1" ht="22.5">
-      <c r="A88" s="162"/>
-      <c r="B88" s="162"/>
-      <c r="C88" s="149"/>
-      <c r="D88" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="E88" s="152"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="156"/>
-      <c r="I88" s="156"/>
-      <c r="J88" s="156"/>
-      <c r="K88" s="156"/>
-      <c r="L88" s="14"/>
+      <c r="AR87" s="60"/>
+      <c r="AS87" s="144"/>
+      <c r="AT87" s="110"/>
+      <c r="AU87" s="110"/>
+      <c r="AV87" s="110"/>
+    </row>
+    <row r="88" spans="1:48" s="3" customFormat="1" ht="22.5">
+      <c r="A88" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C88" s="126" t="s">
+        <v>136</v>
+      </c>
+      <c r="D88" s="19"/>
+      <c r="E88" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F88" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="G88" s="30" t="s">
+        <v>182</v>
+      </c>
+      <c r="H88" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I88" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="J88" s="142" t="s">
+        <v>201</v>
+      </c>
+      <c r="K88" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="L88" s="15"/>
       <c r="M88" s="14"/>
       <c r="N88" s="15"/>
-      <c r="O88" s="14"/>
-      <c r="P88" s="14"/>
-      <c r="Q88" s="14"/>
-      <c r="R88" s="17"/>
-      <c r="S88" s="14"/>
-      <c r="T88" s="14"/>
-      <c r="U88" s="14"/>
-      <c r="V88" s="14"/>
-      <c r="W88" s="45"/>
+      <c r="O88" s="21"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="15"/>
+      <c r="S88" s="21"/>
+      <c r="T88" s="15"/>
+      <c r="U88" s="21"/>
+      <c r="V88" s="21"/>
+      <c r="W88" s="44"/>
       <c r="X88" s="14"/>
       <c r="Y88" s="14"/>
       <c r="Z88" s="17"/>
@@ -7220,46 +7346,28 @@
       <c r="AM88" s="18"/>
       <c r="AN88" s="18"/>
       <c r="AO88" s="18"/>
-      <c r="AP88" s="12"/>
+      <c r="AP88" s="21"/>
       <c r="AQ88" s="14"/>
-      <c r="AR88" s="61"/>
-      <c r="AS88" s="146"/>
-      <c r="AT88" s="111"/>
-      <c r="AU88" s="111"/>
-      <c r="AV88" s="111"/>
-    </row>
-    <row r="89" spans="1:48" s="3" customFormat="1" ht="22.5">
-      <c r="A89" s="49" t="s">
+      <c r="AR88" s="25"/>
+    </row>
+    <row r="89" spans="1:48" s="3" customFormat="1">
+      <c r="A89" s="27" t="s">
         <v>137</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C89" s="128" t="s">
         <v>138</v>
       </c>
+      <c r="C89" s="125" t="s">
+        <v>139</v>
+      </c>
       <c r="D89" s="19"/>
-      <c r="E89" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="F89" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="G89" s="30" t="s">
-        <v>184</v>
-      </c>
-      <c r="H89" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="I89" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="J89" s="144" t="s">
-        <v>203</v>
-      </c>
-      <c r="K89" s="15" t="s">
-        <v>214</v>
-      </c>
+      <c r="E89" s="45"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="15"/>
       <c r="L89" s="15"/>
       <c r="M89" s="14"/>
       <c r="N89" s="15"/>
@@ -7268,10 +7376,10 @@
       <c r="Q89" s="15"/>
       <c r="R89" s="15"/>
       <c r="S89" s="21"/>
-      <c r="T89" s="15"/>
-      <c r="U89" s="21"/>
+      <c r="T89" s="14"/>
+      <c r="U89" s="42"/>
       <c r="V89" s="21"/>
-      <c r="W89" s="45"/>
+      <c r="W89" s="50"/>
       <c r="X89" s="14"/>
       <c r="Y89" s="14"/>
       <c r="Z89" s="17"/>
@@ -7290,40 +7398,40 @@
       <c r="AM89" s="18"/>
       <c r="AN89" s="18"/>
       <c r="AO89" s="18"/>
-      <c r="AP89" s="21"/>
+      <c r="AP89" s="42"/>
       <c r="AQ89" s="14"/>
       <c r="AR89" s="25"/>
     </row>
-    <row r="90" spans="1:48" s="3" customFormat="1">
-      <c r="A90" s="27" t="s">
-        <v>139</v>
+    <row r="90" spans="1:48" s="37" customFormat="1">
+      <c r="A90" s="78" t="s">
+        <v>140</v>
       </c>
       <c r="B90" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C90" s="127" t="s">
-        <v>141</v>
-      </c>
-      <c r="D90" s="19"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="15"/>
-      <c r="H90" s="15"/>
-      <c r="I90" s="15"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="15"/>
-      <c r="L90" s="15"/>
+      <c r="C90" s="130">
+        <v>2.5</v>
+      </c>
+      <c r="D90" s="12"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="14"/>
       <c r="M90" s="14"/>
       <c r="N90" s="15"/>
-      <c r="O90" s="21"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="15"/>
-      <c r="R90" s="15"/>
-      <c r="S90" s="21"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="14"/>
+      <c r="Q90" s="14"/>
+      <c r="R90" s="14"/>
+      <c r="S90" s="14"/>
       <c r="T90" s="14"/>
-      <c r="U90" s="43"/>
-      <c r="V90" s="21"/>
-      <c r="W90" s="51"/>
+      <c r="U90" s="14"/>
+      <c r="V90" s="14"/>
+      <c r="W90" s="44"/>
       <c r="X90" s="14"/>
       <c r="Y90" s="14"/>
       <c r="Z90" s="17"/>
@@ -7342,22 +7450,22 @@
       <c r="AM90" s="18"/>
       <c r="AN90" s="18"/>
       <c r="AO90" s="18"/>
-      <c r="AP90" s="43"/>
+      <c r="AP90" s="14"/>
       <c r="AQ90" s="14"/>
       <c r="AR90" s="25"/>
     </row>
-    <row r="91" spans="1:48" s="38" customFormat="1">
-      <c r="A91" s="79" t="s">
+    <row r="91" spans="1:48" s="37" customFormat="1">
+      <c r="A91" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C91" s="130" t="s">
         <v>142</v>
       </c>
-      <c r="B91" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C91" s="132">
-        <v>2.5</v>
-      </c>
       <c r="D91" s="12"/>
-      <c r="E91" s="6"/>
+      <c r="E91" s="55"/>
       <c r="F91" s="14"/>
       <c r="G91" s="14"/>
       <c r="H91" s="14"/>
@@ -7375,7 +7483,7 @@
       <c r="T91" s="14"/>
       <c r="U91" s="14"/>
       <c r="V91" s="14"/>
-      <c r="W91" s="45"/>
+      <c r="W91" s="44"/>
       <c r="X91" s="14"/>
       <c r="Y91" s="14"/>
       <c r="Z91" s="17"/>
@@ -7398,36 +7506,50 @@
       <c r="AQ91" s="14"/>
       <c r="AR91" s="25"/>
     </row>
-    <row r="92" spans="1:48" s="38" customFormat="1">
-      <c r="A92" s="49" t="s">
+    <row r="92" spans="1:48" s="3" customFormat="1" ht="22.5">
+      <c r="A92" s="48" t="s">
         <v>143</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C92" s="132" t="s">
+      <c r="C92" s="131" t="s">
         <v>144</v>
       </c>
       <c r="D92" s="12"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14"/>
-      <c r="K92" s="14"/>
+      <c r="E92" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I92" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="J92" s="142" t="s">
+        <v>201</v>
+      </c>
+      <c r="K92" s="141">
+        <v>38332</v>
+      </c>
       <c r="L92" s="14"/>
       <c r="M92" s="14"/>
       <c r="N92" s="15"/>
       <c r="O92" s="14"/>
       <c r="P92" s="14"/>
       <c r="Q92" s="14"/>
-      <c r="R92" s="14"/>
+      <c r="R92" s="17"/>
       <c r="S92" s="14"/>
       <c r="T92" s="14"/>
       <c r="U92" s="14"/>
       <c r="V92" s="14"/>
-      <c r="W92" s="45"/>
+      <c r="W92" s="44"/>
       <c r="X92" s="14"/>
       <c r="Y92" s="14"/>
       <c r="Z92" s="17"/>
@@ -7446,54 +7568,52 @@
       <c r="AM92" s="18"/>
       <c r="AN92" s="18"/>
       <c r="AO92" s="18"/>
-      <c r="AP92" s="14"/>
+      <c r="AP92" s="12"/>
       <c r="AQ92" s="14"/>
-      <c r="AR92" s="25"/>
-    </row>
-    <row r="93" spans="1:48" s="3" customFormat="1" ht="22.5">
-      <c r="A93" s="49" t="s">
+      <c r="AR92" s="60"/>
+      <c r="AS92" s="168"/>
+      <c r="AT92" s="169"/>
+      <c r="AU92" s="169"/>
+      <c r="AV92" s="169"/>
+    </row>
+    <row r="93" spans="1:48" s="3" customFormat="1">
+      <c r="A93" s="27" t="s">
         <v>145</v>
       </c>
       <c r="B93" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C93" s="133" t="s">
+      <c r="C93" s="125" t="s">
         <v>146</v>
       </c>
       <c r="D93" s="12"/>
-      <c r="E93" s="13" t="s">
-        <v>210</v>
+      <c r="E93" s="45" t="s">
+        <v>206</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G93" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H93" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I93" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="J93" s="144" t="s">
-        <v>203</v>
-      </c>
-      <c r="K93" s="143">
-        <v>38332</v>
-      </c>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
       <c r="L93" s="14"/>
       <c r="M93" s="14"/>
       <c r="N93" s="15"/>
       <c r="O93" s="14"/>
       <c r="P93" s="14"/>
       <c r="Q93" s="14"/>
-      <c r="R93" s="17"/>
+      <c r="R93" s="14"/>
       <c r="S93" s="14"/>
       <c r="T93" s="14"/>
       <c r="U93" s="14"/>
       <c r="V93" s="14"/>
-      <c r="W93" s="45"/>
+      <c r="W93" s="46"/>
       <c r="X93" s="14"/>
       <c r="Y93" s="14"/>
       <c r="Z93" s="17"/>
@@ -7514,50 +7634,52 @@
       <c r="AO93" s="18"/>
       <c r="AP93" s="12"/>
       <c r="AQ93" s="14"/>
-      <c r="AR93" s="61"/>
-      <c r="AS93" s="170"/>
-      <c r="AT93" s="171"/>
-      <c r="AU93" s="171"/>
-      <c r="AV93" s="171"/>
-    </row>
-    <row r="94" spans="1:48" s="3" customFormat="1">
-      <c r="A94" s="27" t="s">
+      <c r="AR93" s="25"/>
+    </row>
+    <row r="94" spans="1:48" s="3" customFormat="1" ht="22.5">
+      <c r="A94" s="12" t="s">
         <v>147</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C94" s="127" t="s">
         <v>148</v>
       </c>
+      <c r="C94" s="125" t="s">
+        <v>149</v>
+      </c>
       <c r="D94" s="12"/>
-      <c r="E94" s="46" t="s">
-        <v>208</v>
+      <c r="E94" s="45" t="s">
+        <v>203</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G94" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H94" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
+      <c r="I94" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="J94" s="142" t="s">
+        <v>201</v>
+      </c>
+      <c r="K94" s="14" t="s">
+        <v>205</v>
+      </c>
       <c r="L94" s="14"/>
       <c r="M94" s="14"/>
       <c r="N94" s="15"/>
       <c r="O94" s="14"/>
       <c r="P94" s="14"/>
       <c r="Q94" s="14"/>
-      <c r="R94" s="14"/>
+      <c r="R94" s="51"/>
       <c r="S94" s="14"/>
       <c r="T94" s="14"/>
       <c r="U94" s="14"/>
       <c r="V94" s="14"/>
-      <c r="W94" s="47"/>
+      <c r="W94" s="46"/>
       <c r="X94" s="14"/>
       <c r="Y94" s="14"/>
       <c r="Z94" s="17"/>
@@ -7576,41 +7698,41 @@
       <c r="AM94" s="18"/>
       <c r="AN94" s="18"/>
       <c r="AO94" s="18"/>
-      <c r="AP94" s="12"/>
+      <c r="AP94" s="14"/>
       <c r="AQ94" s="14"/>
       <c r="AR94" s="25"/>
     </row>
-    <row r="95" spans="1:48" s="3" customFormat="1" ht="22.5">
+    <row r="95" spans="1:48" s="3" customFormat="1" ht="23.25" thickBot="1">
       <c r="A95" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B95" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C95" s="127" t="s">
+      <c r="B95" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C95" s="125" t="s">
         <v>151</v>
       </c>
       <c r="D95" s="12"/>
-      <c r="E95" s="46" t="s">
-        <v>205</v>
+      <c r="E95" s="45" t="s">
+        <v>198</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="G95" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H95" s="14" t="s">
         <v>11</v>
       </c>
       <c r="I95" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="J95" s="144" t="s">
-        <v>203</v>
+        <v>196</v>
+      </c>
+      <c r="J95" s="142" t="s">
+        <v>201</v>
       </c>
       <c r="K95" s="14" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="L95" s="14"/>
       <c r="M95" s="14"/>
@@ -7618,12 +7740,12 @@
       <c r="O95" s="14"/>
       <c r="P95" s="14"/>
       <c r="Q95" s="14"/>
-      <c r="R95" s="52"/>
+      <c r="R95" s="51"/>
       <c r="S95" s="14"/>
       <c r="T95" s="14"/>
       <c r="U95" s="14"/>
       <c r="V95" s="14"/>
-      <c r="W95" s="47"/>
+      <c r="W95" s="46"/>
       <c r="X95" s="14"/>
       <c r="Y95" s="14"/>
       <c r="Z95" s="17"/>
@@ -7643,40 +7765,40 @@
       <c r="AN95" s="18"/>
       <c r="AO95" s="18"/>
       <c r="AP95" s="14"/>
-      <c r="AQ95" s="14"/>
+      <c r="AQ95" s="24"/>
       <c r="AR95" s="25"/>
     </row>
-    <row r="96" spans="1:48" s="3" customFormat="1" ht="23.25" thickBot="1">
+    <row r="96" spans="1:48" s="38" customFormat="1" ht="23.25" thickBot="1">
       <c r="A96" s="12" t="s">
         <v>152</v>
       </c>
       <c r="B96" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C96" s="127" t="s">
         <v>153</v>
       </c>
+      <c r="C96" s="125" t="s">
+        <v>46</v>
+      </c>
       <c r="D96" s="12"/>
-      <c r="E96" s="46" t="s">
-        <v>200</v>
+      <c r="E96" s="14" t="s">
+        <v>195</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G96" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H96" s="14" t="s">
         <v>11</v>
       </c>
       <c r="I96" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="J96" s="144" t="s">
-        <v>203</v>
+        <v>196</v>
+      </c>
+      <c r="J96" s="142" t="s">
+        <v>201</v>
       </c>
       <c r="K96" s="14" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="L96" s="14"/>
       <c r="M96" s="14"/>
@@ -7684,15 +7806,15 @@
       <c r="O96" s="14"/>
       <c r="P96" s="14"/>
       <c r="Q96" s="14"/>
-      <c r="R96" s="52"/>
+      <c r="R96" s="14"/>
       <c r="S96" s="14"/>
       <c r="T96" s="14"/>
       <c r="U96" s="14"/>
       <c r="V96" s="14"/>
-      <c r="W96" s="47"/>
+      <c r="W96" s="46"/>
       <c r="X96" s="14"/>
       <c r="Y96" s="14"/>
-      <c r="Z96" s="17"/>
+      <c r="Z96" s="14"/>
       <c r="AA96" s="18"/>
       <c r="AB96" s="18"/>
       <c r="AC96" s="18"/>
@@ -7709,40 +7831,41 @@
       <c r="AN96" s="18"/>
       <c r="AO96" s="18"/>
       <c r="AP96" s="14"/>
-      <c r="AQ96" s="24"/>
-      <c r="AR96" s="25"/>
-    </row>
-    <row r="97" spans="1:45" s="39" customFormat="1" ht="23.25" thickBot="1">
+      <c r="AQ96" s="14"/>
+      <c r="AR96" s="60"/>
+      <c r="AS96" s="74"/>
+    </row>
+    <row r="97" spans="1:45" s="38" customFormat="1">
       <c r="A97" s="12" t="s">
         <v>154</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="C97" s="127" t="s">
-        <v>46</v>
+        <v>154</v>
+      </c>
+      <c r="C97" s="123">
+        <v>2.2000000000000002</v>
       </c>
       <c r="D97" s="12"/>
-      <c r="E97" s="14" t="s">
-        <v>197</v>
+      <c r="E97" s="45" t="s">
+        <v>189</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="G97" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H97" s="14" t="s">
         <v>11</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="J97" s="144" t="s">
-        <v>203</v>
+        <v>191</v>
+      </c>
+      <c r="J97" s="142" t="s">
+        <v>201</v>
       </c>
       <c r="K97" s="14" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L97" s="14"/>
       <c r="M97" s="14"/>
@@ -7755,7 +7878,7 @@
       <c r="T97" s="14"/>
       <c r="U97" s="14"/>
       <c r="V97" s="14"/>
-      <c r="W97" s="47"/>
+      <c r="W97" s="46"/>
       <c r="X97" s="14"/>
       <c r="Y97" s="14"/>
       <c r="Z97" s="14"/>
@@ -7774,42 +7897,41 @@
       <c r="AM97" s="18"/>
       <c r="AN97" s="18"/>
       <c r="AO97" s="18"/>
-      <c r="AP97" s="14"/>
+      <c r="AP97" s="12"/>
       <c r="AQ97" s="14"/>
-      <c r="AR97" s="61"/>
-      <c r="AS97" s="75"/>
-    </row>
-    <row r="98" spans="1:45" s="39" customFormat="1">
+      <c r="AR97" s="25"/>
+    </row>
+    <row r="98" spans="1:45" s="38" customFormat="1" ht="22.5">
       <c r="A98" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B98" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="C98" s="125">
-        <v>2.2000000000000002</v>
+        <v>155</v>
+      </c>
+      <c r="C98" s="123">
+        <v>2.1</v>
       </c>
       <c r="D98" s="12"/>
-      <c r="E98" s="46" t="s">
-        <v>191</v>
+      <c r="E98" s="79" t="s">
+        <v>185</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="G98" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H98" s="14" t="s">
         <v>11</v>
       </c>
       <c r="I98" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="J98" s="144" t="s">
-        <v>203</v>
+        <v>192</v>
+      </c>
+      <c r="J98" s="173" t="s">
+        <v>187</v>
       </c>
       <c r="K98" s="14" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="L98" s="14"/>
       <c r="M98" s="14"/>
@@ -7822,7 +7944,7 @@
       <c r="T98" s="14"/>
       <c r="U98" s="14"/>
       <c r="V98" s="14"/>
-      <c r="W98" s="47"/>
+      <c r="W98" s="46"/>
       <c r="X98" s="14"/>
       <c r="Y98" s="14"/>
       <c r="Z98" s="14"/>
@@ -7845,37 +7967,37 @@
       <c r="AQ98" s="14"/>
       <c r="AR98" s="25"/>
     </row>
-    <row r="99" spans="1:45" s="39" customFormat="1" ht="22.5">
+    <row r="99" spans="1:45" s="38" customFormat="1">
       <c r="A99" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C99" s="125" t="s">
         <v>157</v>
-      </c>
-      <c r="B99" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="C99" s="125">
-        <v>2.1</v>
       </c>
       <c r="D99" s="12"/>
       <c r="E99" s="80" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G99" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H99" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="I99" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="J99" s="174" t="s">
-        <v>189</v>
-      </c>
-      <c r="K99" s="14" t="s">
-        <v>190</v>
+      <c r="I99" s="140" t="s">
+        <v>183</v>
+      </c>
+      <c r="J99" s="143" t="s">
+        <v>202</v>
+      </c>
+      <c r="K99" s="141">
+        <v>39346</v>
       </c>
       <c r="L99" s="14"/>
       <c r="M99" s="14"/>
@@ -7888,10 +8010,10 @@
       <c r="T99" s="14"/>
       <c r="U99" s="14"/>
       <c r="V99" s="14"/>
-      <c r="W99" s="47"/>
+      <c r="W99" s="44"/>
       <c r="X99" s="14"/>
       <c r="Y99" s="14"/>
-      <c r="Z99" s="14"/>
+      <c r="Z99" s="17"/>
       <c r="AA99" s="18"/>
       <c r="AB99" s="18"/>
       <c r="AC99" s="18"/>
@@ -7907,42 +8029,26 @@
       <c r="AM99" s="18"/>
       <c r="AN99" s="18"/>
       <c r="AO99" s="18"/>
-      <c r="AP99" s="12"/>
+      <c r="AP99" s="14"/>
       <c r="AQ99" s="14"/>
       <c r="AR99" s="25"/>
     </row>
-    <row r="100" spans="1:45" s="39" customFormat="1">
+    <row r="100" spans="1:45" s="3" customFormat="1">
       <c r="A100" s="12" t="s">
         <v>158</v>
       </c>
       <c r="B100" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C100" s="127" t="s">
-        <v>159</v>
-      </c>
+      <c r="C100" s="125"/>
       <c r="D100" s="12"/>
-      <c r="E100" s="81" t="s">
-        <v>183</v>
-      </c>
-      <c r="F100" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="G100" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="H100" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I100" s="142" t="s">
-        <v>185</v>
-      </c>
-      <c r="J100" s="145" t="s">
-        <v>204</v>
-      </c>
-      <c r="K100" s="143">
-        <v>39346</v>
-      </c>
+      <c r="E100" s="45"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="139"/>
+      <c r="K100" s="14"/>
       <c r="L100" s="14"/>
       <c r="M100" s="14"/>
       <c r="N100" s="15"/>
@@ -7954,10 +8060,10 @@
       <c r="T100" s="14"/>
       <c r="U100" s="14"/>
       <c r="V100" s="14"/>
-      <c r="W100" s="45"/>
+      <c r="W100" s="46"/>
       <c r="X100" s="14"/>
       <c r="Y100" s="14"/>
-      <c r="Z100" s="17"/>
+      <c r="Z100" s="41"/>
       <c r="AA100" s="18"/>
       <c r="AB100" s="18"/>
       <c r="AC100" s="18"/>
@@ -7973,25 +8079,27 @@
       <c r="AM100" s="18"/>
       <c r="AN100" s="18"/>
       <c r="AO100" s="18"/>
-      <c r="AP100" s="14"/>
+      <c r="AP100" s="12"/>
       <c r="AQ100" s="14"/>
       <c r="AR100" s="25"/>
     </row>
-    <row r="101" spans="1:45" s="3" customFormat="1">
+    <row r="101" spans="1:45" s="3" customFormat="1" ht="13.5" thickBot="1">
       <c r="A101" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C101" s="132" t="s">
         <v>160</v>
       </c>
-      <c r="B101" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C101" s="127"/>
       <c r="D101" s="12"/>
-      <c r="E101" s="46"/>
+      <c r="E101" s="6"/>
       <c r="F101" s="14"/>
-      <c r="G101" s="24"/>
+      <c r="G101" s="14"/>
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
-      <c r="J101" s="141"/>
+      <c r="J101" s="14"/>
       <c r="K101" s="14"/>
       <c r="L101" s="14"/>
       <c r="M101" s="14"/>
@@ -8004,10 +8112,10 @@
       <c r="T101" s="14"/>
       <c r="U101" s="14"/>
       <c r="V101" s="14"/>
-      <c r="W101" s="47"/>
+      <c r="W101" s="44"/>
       <c r="X101" s="14"/>
       <c r="Y101" s="14"/>
-      <c r="Z101" s="42"/>
+      <c r="Z101" s="17"/>
       <c r="AA101" s="18"/>
       <c r="AB101" s="18"/>
       <c r="AC101" s="18"/>
@@ -8023,20 +8131,18 @@
       <c r="AM101" s="18"/>
       <c r="AN101" s="18"/>
       <c r="AO101" s="18"/>
-      <c r="AP101" s="12"/>
+      <c r="AP101" s="14"/>
       <c r="AQ101" s="14"/>
       <c r="AR101" s="25"/>
     </row>
-    <row r="102" spans="1:45" s="3" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A102" s="12" t="s">
+    <row r="102" spans="1:45" s="38" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A102" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="C102" s="134" t="s">
-        <v>162</v>
-      </c>
+      <c r="C102" s="125"/>
       <c r="D102" s="12"/>
       <c r="E102" s="6"/>
       <c r="F102" s="14"/>
@@ -8056,7 +8162,7 @@
       <c r="T102" s="14"/>
       <c r="U102" s="14"/>
       <c r="V102" s="14"/>
-      <c r="W102" s="45"/>
+      <c r="W102" s="44"/>
       <c r="X102" s="14"/>
       <c r="Y102" s="14"/>
       <c r="Z102" s="17"/>
@@ -8077,16 +8183,13 @@
       <c r="AO102" s="18"/>
       <c r="AP102" s="14"/>
       <c r="AQ102" s="14"/>
-      <c r="AR102" s="25"/>
-    </row>
-    <row r="103" spans="1:45" s="39" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A103" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="B103" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="C103" s="127"/>
+      <c r="AR102" s="60"/>
+      <c r="AS102" s="74"/>
+    </row>
+    <row r="103" spans="1:45" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A103" s="27"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="125"/>
       <c r="D103" s="12"/>
       <c r="E103" s="6"/>
       <c r="F103" s="14"/>
@@ -8106,7 +8209,7 @@
       <c r="T103" s="14"/>
       <c r="U103" s="14"/>
       <c r="V103" s="14"/>
-      <c r="W103" s="45"/>
+      <c r="W103" s="44"/>
       <c r="X103" s="14"/>
       <c r="Y103" s="14"/>
       <c r="Z103" s="17"/>
@@ -8127,17 +8230,17 @@
       <c r="AO103" s="18"/>
       <c r="AP103" s="14"/>
       <c r="AQ103" s="14"/>
-      <c r="AR103" s="61"/>
-      <c r="AS103" s="75"/>
+      <c r="AR103" s="60"/>
+      <c r="AS103" s="74"/>
     </row>
     <row r="104" spans="1:45" s="3" customFormat="1" ht="13.5" thickBot="1">
       <c r="A104" s="27"/>
       <c r="B104" s="12"/>
-      <c r="C104" s="127"/>
+      <c r="C104" s="126"/>
       <c r="D104" s="12"/>
-      <c r="E104" s="6"/>
+      <c r="E104" s="7"/>
       <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
+      <c r="G104" s="15"/>
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
       <c r="J104" s="14"/>
@@ -8146,14 +8249,14 @@
       <c r="M104" s="14"/>
       <c r="N104" s="15"/>
       <c r="O104" s="14"/>
-      <c r="P104" s="14"/>
-      <c r="Q104" s="14"/>
-      <c r="R104" s="14"/>
-      <c r="S104" s="14"/>
-      <c r="T104" s="14"/>
-      <c r="U104" s="14"/>
-      <c r="V104" s="14"/>
-      <c r="W104" s="45"/>
+      <c r="P104" s="15"/>
+      <c r="Q104" s="15"/>
+      <c r="R104" s="15"/>
+      <c r="S104" s="21"/>
+      <c r="T104" s="21"/>
+      <c r="U104" s="21"/>
+      <c r="V104" s="21"/>
+      <c r="W104" s="44"/>
       <c r="X104" s="14"/>
       <c r="Y104" s="14"/>
       <c r="Z104" s="17"/>
@@ -8172,19 +8275,18 @@
       <c r="AM104" s="18"/>
       <c r="AN104" s="18"/>
       <c r="AO104" s="18"/>
-      <c r="AP104" s="14"/>
+      <c r="AP104" s="21"/>
       <c r="AQ104" s="14"/>
-      <c r="AR104" s="61"/>
-      <c r="AS104" s="75"/>
+      <c r="AR104" s="25"/>
     </row>
     <row r="105" spans="1:45" s="3" customFormat="1" ht="13.5" thickBot="1">
       <c r="A105" s="27"/>
       <c r="B105" s="12"/>
-      <c r="C105" s="128"/>
+      <c r="C105" s="125"/>
       <c r="D105" s="12"/>
-      <c r="E105" s="7"/>
+      <c r="E105" s="13"/>
       <c r="F105" s="14"/>
-      <c r="G105" s="15"/>
+      <c r="G105" s="14"/>
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
@@ -8193,14 +8295,14 @@
       <c r="M105" s="14"/>
       <c r="N105" s="15"/>
       <c r="O105" s="14"/>
-      <c r="P105" s="15"/>
-      <c r="Q105" s="15"/>
-      <c r="R105" s="15"/>
-      <c r="S105" s="21"/>
-      <c r="T105" s="21"/>
-      <c r="U105" s="21"/>
-      <c r="V105" s="21"/>
-      <c r="W105" s="45"/>
+      <c r="P105" s="14"/>
+      <c r="Q105" s="14"/>
+      <c r="R105" s="17"/>
+      <c r="S105" s="14"/>
+      <c r="T105" s="14"/>
+      <c r="U105" s="14"/>
+      <c r="V105" s="14"/>
+      <c r="W105" s="44"/>
       <c r="X105" s="14"/>
       <c r="Y105" s="14"/>
       <c r="Z105" s="17"/>
@@ -8219,16 +8321,17 @@
       <c r="AM105" s="18"/>
       <c r="AN105" s="18"/>
       <c r="AO105" s="18"/>
-      <c r="AP105" s="21"/>
+      <c r="AP105" s="12"/>
       <c r="AQ105" s="14"/>
-      <c r="AR105" s="25"/>
+      <c r="AR105" s="60"/>
+      <c r="AS105" s="74"/>
     </row>
     <row r="106" spans="1:45" s="3" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A106" s="27"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="127"/>
+      <c r="A106" s="12"/>
+      <c r="B106" s="23"/>
+      <c r="C106" s="125"/>
       <c r="D106" s="12"/>
-      <c r="E106" s="13"/>
+      <c r="E106" s="55"/>
       <c r="F106" s="14"/>
       <c r="G106" s="14"/>
       <c r="H106" s="14"/>
@@ -8241,12 +8344,12 @@
       <c r="O106" s="14"/>
       <c r="P106" s="14"/>
       <c r="Q106" s="14"/>
-      <c r="R106" s="17"/>
+      <c r="R106" s="52"/>
       <c r="S106" s="14"/>
       <c r="T106" s="14"/>
       <c r="U106" s="14"/>
       <c r="V106" s="14"/>
-      <c r="W106" s="45"/>
+      <c r="W106" s="46"/>
       <c r="X106" s="14"/>
       <c r="Y106" s="14"/>
       <c r="Z106" s="17"/>
@@ -8267,36 +8370,35 @@
       <c r="AO106" s="18"/>
       <c r="AP106" s="12"/>
       <c r="AQ106" s="14"/>
-      <c r="AR106" s="61"/>
-      <c r="AS106" s="75"/>
+      <c r="AR106" s="25"/>
     </row>
     <row r="107" spans="1:45" s="3" customFormat="1" ht="13.5" thickBot="1">
       <c r="A107" s="12"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="127"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="14"/>
-      <c r="K107" s="14"/>
-      <c r="L107" s="14"/>
-      <c r="M107" s="14"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="123"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="15"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="15"/>
       <c r="N107" s="15"/>
-      <c r="O107" s="14"/>
-      <c r="P107" s="14"/>
-      <c r="Q107" s="14"/>
-      <c r="R107" s="53"/>
-      <c r="S107" s="14"/>
+      <c r="O107" s="25"/>
+      <c r="P107" s="15"/>
+      <c r="Q107" s="15"/>
+      <c r="R107" s="15"/>
+      <c r="S107" s="21"/>
       <c r="T107" s="14"/>
-      <c r="U107" s="14"/>
-      <c r="V107" s="14"/>
-      <c r="W107" s="47"/>
+      <c r="U107" s="21"/>
+      <c r="V107" s="21"/>
+      <c r="W107" s="44"/>
       <c r="X107" s="14"/>
       <c r="Y107" s="14"/>
-      <c r="Z107" s="17"/>
+      <c r="Z107" s="22"/>
       <c r="AA107" s="18"/>
       <c r="AB107" s="18"/>
       <c r="AC107" s="18"/>
@@ -8312,13 +8414,14 @@
       <c r="AM107" s="18"/>
       <c r="AN107" s="18"/>
       <c r="AO107" s="18"/>
-      <c r="AP107" s="12"/>
+      <c r="AP107" s="21"/>
       <c r="AQ107" s="14"/>
-      <c r="AR107" s="25"/>
+      <c r="AR107" s="60"/>
+      <c r="AS107" s="74"/>
     </row>
     <row r="108" spans="1:45" s="3" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A108" s="12"/>
-      <c r="B108" s="12"/>
+      <c r="A108" s="27"/>
+      <c r="B108" s="23"/>
       <c r="C108" s="125"/>
       <c r="D108" s="19"/>
       <c r="E108" s="13"/>
@@ -8339,7 +8442,7 @@
       <c r="T108" s="14"/>
       <c r="U108" s="21"/>
       <c r="V108" s="21"/>
-      <c r="W108" s="45"/>
+      <c r="W108" s="44"/>
       <c r="X108" s="14"/>
       <c r="Y108" s="14"/>
       <c r="Z108" s="22"/>
@@ -8360,36 +8463,36 @@
       <c r="AO108" s="18"/>
       <c r="AP108" s="21"/>
       <c r="AQ108" s="14"/>
-      <c r="AR108" s="61"/>
-      <c r="AS108" s="75"/>
+      <c r="AR108" s="60"/>
+      <c r="AS108" s="74"/>
     </row>
     <row r="109" spans="1:45" s="3" customFormat="1" ht="13.5" thickBot="1">
       <c r="A109" s="27"/>
       <c r="B109" s="23"/>
-      <c r="C109" s="127"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="13"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
-      <c r="H109" s="15"/>
-      <c r="I109" s="15"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="15"/>
-      <c r="L109" s="15"/>
-      <c r="M109" s="15"/>
+      <c r="C109" s="125"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="6"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="14"/>
+      <c r="K109" s="14"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="14"/>
       <c r="N109" s="15"/>
-      <c r="O109" s="25"/>
-      <c r="P109" s="15"/>
-      <c r="Q109" s="15"/>
-      <c r="R109" s="15"/>
-      <c r="S109" s="21"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="14"/>
+      <c r="Q109" s="14"/>
+      <c r="R109" s="14"/>
+      <c r="S109" s="14"/>
       <c r="T109" s="14"/>
-      <c r="U109" s="21"/>
-      <c r="V109" s="21"/>
-      <c r="W109" s="45"/>
+      <c r="U109" s="14"/>
+      <c r="V109" s="14"/>
+      <c r="W109" s="44"/>
       <c r="X109" s="14"/>
       <c r="Y109" s="14"/>
-      <c r="Z109" s="22"/>
+      <c r="Z109" s="17"/>
       <c r="AA109" s="18"/>
       <c r="AB109" s="18"/>
       <c r="AC109" s="18"/>
@@ -8405,15 +8508,15 @@
       <c r="AM109" s="18"/>
       <c r="AN109" s="18"/>
       <c r="AO109" s="18"/>
-      <c r="AP109" s="21"/>
+      <c r="AP109" s="14"/>
       <c r="AQ109" s="14"/>
-      <c r="AR109" s="61"/>
-      <c r="AS109" s="75"/>
+      <c r="AR109" s="60"/>
+      <c r="AS109" s="74"/>
     </row>
     <row r="110" spans="1:45" s="3" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A110" s="27"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="127"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="125"/>
       <c r="D110" s="12"/>
       <c r="E110" s="6"/>
       <c r="F110" s="14"/>
@@ -8433,7 +8536,7 @@
       <c r="T110" s="14"/>
       <c r="U110" s="14"/>
       <c r="V110" s="14"/>
-      <c r="W110" s="45"/>
+      <c r="W110" s="44"/>
       <c r="X110" s="14"/>
       <c r="Y110" s="14"/>
       <c r="Z110" s="17"/>
@@ -8454,13 +8557,12 @@
       <c r="AO110" s="18"/>
       <c r="AP110" s="14"/>
       <c r="AQ110" s="14"/>
-      <c r="AR110" s="61"/>
-      <c r="AS110" s="75"/>
-    </row>
-    <row r="111" spans="1:45" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="AR110" s="25"/>
+    </row>
+    <row r="111" spans="1:45" s="38" customFormat="1" ht="13.5" thickBot="1">
       <c r="A111" s="12"/>
       <c r="B111" s="12"/>
-      <c r="C111" s="127"/>
+      <c r="C111" s="125"/>
       <c r="D111" s="12"/>
       <c r="E111" s="6"/>
       <c r="F111" s="14"/>
@@ -8480,7 +8582,7 @@
       <c r="T111" s="14"/>
       <c r="U111" s="14"/>
       <c r="V111" s="14"/>
-      <c r="W111" s="45"/>
+      <c r="W111" s="46"/>
       <c r="X111" s="14"/>
       <c r="Y111" s="14"/>
       <c r="Z111" s="17"/>
@@ -8501,14 +8603,15 @@
       <c r="AO111" s="18"/>
       <c r="AP111" s="14"/>
       <c r="AQ111" s="14"/>
-      <c r="AR111" s="25"/>
-    </row>
-    <row r="112" spans="1:45" s="39" customFormat="1" ht="13.5" thickBot="1">
+      <c r="AR111" s="60"/>
+      <c r="AS111" s="81"/>
+    </row>
+    <row r="112" spans="1:45" s="38" customFormat="1" ht="13.5" thickBot="1">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
-      <c r="C112" s="127"/>
+      <c r="C112" s="125"/>
       <c r="D112" s="12"/>
-      <c r="E112" s="6"/>
+      <c r="E112" s="45"/>
       <c r="F112" s="14"/>
       <c r="G112" s="14"/>
       <c r="H112" s="14"/>
@@ -8526,7 +8629,7 @@
       <c r="T112" s="14"/>
       <c r="U112" s="14"/>
       <c r="V112" s="14"/>
-      <c r="W112" s="47"/>
+      <c r="W112" s="46"/>
       <c r="X112" s="14"/>
       <c r="Y112" s="14"/>
       <c r="Z112" s="17"/>
@@ -8547,15 +8650,14 @@
       <c r="AO112" s="18"/>
       <c r="AP112" s="14"/>
       <c r="AQ112" s="14"/>
-      <c r="AR112" s="61"/>
-      <c r="AS112" s="82"/>
-    </row>
-    <row r="113" spans="1:45" s="39" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A113" s="12"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="127"/>
+      <c r="AR112" s="25"/>
+    </row>
+    <row r="113" spans="1:45" s="3" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A113" s="40"/>
+      <c r="B113" s="117"/>
+      <c r="C113" s="125"/>
       <c r="D113" s="12"/>
-      <c r="E113" s="46"/>
+      <c r="E113" s="13"/>
       <c r="F113" s="14"/>
       <c r="G113" s="14"/>
       <c r="H113" s="14"/>
@@ -8568,12 +8670,12 @@
       <c r="O113" s="14"/>
       <c r="P113" s="14"/>
       <c r="Q113" s="14"/>
-      <c r="R113" s="14"/>
+      <c r="R113" s="17"/>
       <c r="S113" s="14"/>
       <c r="T113" s="14"/>
       <c r="U113" s="14"/>
       <c r="V113" s="14"/>
-      <c r="W113" s="47"/>
+      <c r="W113" s="44"/>
       <c r="X113" s="14"/>
       <c r="Y113" s="14"/>
       <c r="Z113" s="17"/>
@@ -8592,16 +8694,17 @@
       <c r="AM113" s="18"/>
       <c r="AN113" s="18"/>
       <c r="AO113" s="18"/>
-      <c r="AP113" s="14"/>
+      <c r="AP113" s="12"/>
       <c r="AQ113" s="14"/>
-      <c r="AR113" s="25"/>
-    </row>
-    <row r="114" spans="1:45" s="3" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A114" s="41"/>
-      <c r="B114" s="119"/>
-      <c r="C114" s="127"/>
+      <c r="AR113" s="60"/>
+      <c r="AS113" s="74"/>
+    </row>
+    <row r="114" spans="1:45" s="38" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A114" s="12"/>
+      <c r="B114" s="118"/>
+      <c r="C114" s="125"/>
       <c r="D114" s="12"/>
-      <c r="E114" s="13"/>
+      <c r="E114" s="45"/>
       <c r="F114" s="14"/>
       <c r="G114" s="14"/>
       <c r="H114" s="14"/>
@@ -8614,15 +8717,15 @@
       <c r="O114" s="14"/>
       <c r="P114" s="14"/>
       <c r="Q114" s="14"/>
-      <c r="R114" s="17"/>
+      <c r="R114" s="14"/>
       <c r="S114" s="14"/>
       <c r="T114" s="14"/>
       <c r="U114" s="14"/>
       <c r="V114" s="14"/>
-      <c r="W114" s="45"/>
+      <c r="W114" s="46"/>
       <c r="X114" s="14"/>
       <c r="Y114" s="14"/>
-      <c r="Z114" s="17"/>
+      <c r="Z114" s="14"/>
       <c r="AA114" s="18"/>
       <c r="AB114" s="18"/>
       <c r="AC114" s="18"/>
@@ -8638,17 +8741,17 @@
       <c r="AM114" s="18"/>
       <c r="AN114" s="18"/>
       <c r="AO114" s="18"/>
-      <c r="AP114" s="12"/>
-      <c r="AQ114" s="14"/>
-      <c r="AR114" s="61"/>
-      <c r="AS114" s="75"/>
-    </row>
-    <row r="115" spans="1:45" s="39" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A115" s="12"/>
-      <c r="B115" s="120"/>
-      <c r="C115" s="127"/>
+      <c r="AP114" s="14"/>
+      <c r="AQ114" s="24"/>
+      <c r="AR114" s="60"/>
+      <c r="AS114" s="74"/>
+    </row>
+    <row r="115" spans="1:45" s="3" customFormat="1">
+      <c r="A115" s="40"/>
+      <c r="B115" s="118"/>
+      <c r="C115" s="126"/>
       <c r="D115" s="12"/>
-      <c r="E115" s="46"/>
+      <c r="E115" s="6"/>
       <c r="F115" s="14"/>
       <c r="G115" s="14"/>
       <c r="H115" s="14"/>
@@ -8666,10 +8769,10 @@
       <c r="T115" s="14"/>
       <c r="U115" s="14"/>
       <c r="V115" s="14"/>
-      <c r="W115" s="47"/>
+      <c r="W115" s="44"/>
       <c r="X115" s="14"/>
       <c r="Y115" s="14"/>
-      <c r="Z115" s="14"/>
+      <c r="Z115" s="22"/>
       <c r="AA115" s="18"/>
       <c r="AB115" s="18"/>
       <c r="AC115" s="18"/>
@@ -8686,16 +8789,15 @@
       <c r="AN115" s="18"/>
       <c r="AO115" s="18"/>
       <c r="AP115" s="14"/>
-      <c r="AQ115" s="24"/>
-      <c r="AR115" s="61"/>
-      <c r="AS115" s="75"/>
+      <c r="AQ115" s="14"/>
+      <c r="AR115" s="25"/>
     </row>
     <row r="116" spans="1:45" s="3" customFormat="1">
-      <c r="A116" s="41"/>
-      <c r="B116" s="120"/>
-      <c r="C116" s="128"/>
+      <c r="A116" s="27"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="125"/>
       <c r="D116" s="12"/>
-      <c r="E116" s="6"/>
+      <c r="E116" s="13"/>
       <c r="F116" s="14"/>
       <c r="G116" s="14"/>
       <c r="H116" s="14"/>
@@ -8708,15 +8810,15 @@
       <c r="O116" s="14"/>
       <c r="P116" s="14"/>
       <c r="Q116" s="14"/>
-      <c r="R116" s="14"/>
+      <c r="R116" s="17"/>
       <c r="S116" s="14"/>
       <c r="T116" s="14"/>
       <c r="U116" s="14"/>
       <c r="V116" s="14"/>
-      <c r="W116" s="45"/>
+      <c r="W116" s="44"/>
       <c r="X116" s="14"/>
       <c r="Y116" s="14"/>
-      <c r="Z116" s="22"/>
+      <c r="Z116" s="17"/>
       <c r="AA116" s="18"/>
       <c r="AB116" s="18"/>
       <c r="AC116" s="18"/>
@@ -8737,9 +8839,9 @@
       <c r="AR116" s="25"/>
     </row>
     <row r="117" spans="1:45" s="3" customFormat="1">
-      <c r="A117" s="27"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="127"/>
+      <c r="A117" s="12"/>
+      <c r="B117" s="119"/>
+      <c r="C117" s="125"/>
       <c r="D117" s="12"/>
       <c r="E117" s="13"/>
       <c r="F117" s="14"/>
@@ -8759,7 +8861,7 @@
       <c r="T117" s="14"/>
       <c r="U117" s="14"/>
       <c r="V117" s="14"/>
-      <c r="W117" s="45"/>
+      <c r="W117" s="44"/>
       <c r="X117" s="14"/>
       <c r="Y117" s="14"/>
       <c r="Z117" s="17"/>
@@ -8784,10 +8886,10 @@
     </row>
     <row r="118" spans="1:45" s="3" customFormat="1">
       <c r="A118" s="12"/>
-      <c r="B118" s="121"/>
-      <c r="C118" s="127"/>
+      <c r="B118" s="119"/>
+      <c r="C118" s="125"/>
       <c r="D118" s="12"/>
-      <c r="E118" s="13"/>
+      <c r="E118" s="54"/>
       <c r="F118" s="14"/>
       <c r="G118" s="14"/>
       <c r="H118" s="14"/>
@@ -8805,7 +8907,7 @@
       <c r="T118" s="14"/>
       <c r="U118" s="14"/>
       <c r="V118" s="14"/>
-      <c r="W118" s="45"/>
+      <c r="W118" s="44"/>
       <c r="X118" s="14"/>
       <c r="Y118" s="14"/>
       <c r="Z118" s="17"/>
@@ -8828,12 +8930,12 @@
       <c r="AQ118" s="14"/>
       <c r="AR118" s="25"/>
     </row>
-    <row r="119" spans="1:45" s="3" customFormat="1">
+    <row r="119" spans="1:45" s="3" customFormat="1" ht="13.5" thickBot="1">
       <c r="A119" s="12"/>
-      <c r="B119" s="121"/>
-      <c r="C119" s="127"/>
+      <c r="B119" s="119"/>
+      <c r="C119" s="125"/>
       <c r="D119" s="12"/>
-      <c r="E119" s="55"/>
+      <c r="E119" s="54"/>
       <c r="F119" s="14"/>
       <c r="G119" s="14"/>
       <c r="H119" s="14"/>
@@ -8851,7 +8953,7 @@
       <c r="T119" s="14"/>
       <c r="U119" s="14"/>
       <c r="V119" s="14"/>
-      <c r="W119" s="45"/>
+      <c r="W119" s="44"/>
       <c r="X119" s="14"/>
       <c r="Y119" s="14"/>
       <c r="Z119" s="17"/>
@@ -8874,12 +8976,12 @@
       <c r="AQ119" s="14"/>
       <c r="AR119" s="25"/>
     </row>
-    <row r="120" spans="1:45" s="3" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A120" s="12"/>
-      <c r="B120" s="121"/>
-      <c r="C120" s="127"/>
+    <row r="120" spans="1:45" s="38" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A120" s="82"/>
+      <c r="B120" s="119"/>
+      <c r="C120" s="125"/>
       <c r="D120" s="12"/>
-      <c r="E120" s="55"/>
+      <c r="E120" s="45"/>
       <c r="F120" s="14"/>
       <c r="G120" s="14"/>
       <c r="H120" s="14"/>
@@ -8897,11 +8999,11 @@
       <c r="T120" s="14"/>
       <c r="U120" s="14"/>
       <c r="V120" s="14"/>
-      <c r="W120" s="45"/>
+      <c r="W120" s="46"/>
       <c r="X120" s="14"/>
       <c r="Y120" s="14"/>
-      <c r="Z120" s="17"/>
-      <c r="AA120" s="18"/>
+      <c r="Z120" s="41"/>
+      <c r="AA120" s="20"/>
       <c r="AB120" s="18"/>
       <c r="AC120" s="18"/>
       <c r="AD120" s="18"/>
@@ -8916,16 +9018,17 @@
       <c r="AM120" s="18"/>
       <c r="AN120" s="18"/>
       <c r="AO120" s="18"/>
-      <c r="AP120" s="14"/>
+      <c r="AP120" s="12"/>
       <c r="AQ120" s="14"/>
-      <c r="AR120" s="25"/>
-    </row>
-    <row r="121" spans="1:45" s="39" customFormat="1" ht="13.5" thickBot="1">
+      <c r="AR120" s="53"/>
+      <c r="AS120" s="74"/>
+    </row>
+    <row r="121" spans="1:45" s="38" customFormat="1" ht="13.5" thickBot="1">
       <c r="A121" s="83"/>
-      <c r="B121" s="121"/>
-      <c r="C121" s="127"/>
+      <c r="B121" s="119"/>
+      <c r="C121" s="125"/>
       <c r="D121" s="12"/>
-      <c r="E121" s="46"/>
+      <c r="E121" s="45"/>
       <c r="F121" s="14"/>
       <c r="G121" s="14"/>
       <c r="H121" s="14"/>
@@ -8943,10 +9046,10 @@
       <c r="T121" s="14"/>
       <c r="U121" s="14"/>
       <c r="V121" s="14"/>
-      <c r="W121" s="47"/>
+      <c r="W121" s="46"/>
       <c r="X121" s="14"/>
       <c r="Y121" s="14"/>
-      <c r="Z121" s="42"/>
+      <c r="Z121" s="41"/>
       <c r="AA121" s="20"/>
       <c r="AB121" s="18"/>
       <c r="AC121" s="18"/>
@@ -8964,15 +9067,14 @@
       <c r="AO121" s="18"/>
       <c r="AP121" s="12"/>
       <c r="AQ121" s="14"/>
-      <c r="AR121" s="54"/>
-      <c r="AS121" s="75"/>
-    </row>
-    <row r="122" spans="1:45" s="39" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A122" s="84"/>
-      <c r="B122" s="121"/>
-      <c r="C122" s="127"/>
+      <c r="AR121" s="16"/>
+    </row>
+    <row r="122" spans="1:45" s="38" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A122" s="83"/>
+      <c r="B122" s="119"/>
+      <c r="C122" s="125"/>
       <c r="D122" s="12"/>
-      <c r="E122" s="46"/>
+      <c r="E122" s="45"/>
       <c r="F122" s="14"/>
       <c r="G122" s="14"/>
       <c r="H122" s="14"/>
@@ -8990,11 +9092,11 @@
       <c r="T122" s="14"/>
       <c r="U122" s="14"/>
       <c r="V122" s="14"/>
-      <c r="W122" s="47"/>
+      <c r="W122" s="46"/>
       <c r="X122" s="14"/>
       <c r="Y122" s="14"/>
-      <c r="Z122" s="42"/>
-      <c r="AA122" s="20"/>
+      <c r="Z122" s="41"/>
+      <c r="AA122" s="18"/>
       <c r="AB122" s="18"/>
       <c r="AC122" s="18"/>
       <c r="AD122" s="18"/>
@@ -9011,440 +9113,394 @@
       <c r="AO122" s="18"/>
       <c r="AP122" s="12"/>
       <c r="AQ122" s="14"/>
-      <c r="AR122" s="16"/>
-    </row>
-    <row r="123" spans="1:45" s="39" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A123" s="84"/>
-      <c r="B123" s="121"/>
-      <c r="C123" s="127"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="46"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="14"/>
-      <c r="K123" s="14"/>
-      <c r="L123" s="14"/>
-      <c r="M123" s="14"/>
-      <c r="N123" s="15"/>
-      <c r="O123" s="14"/>
-      <c r="P123" s="14"/>
-      <c r="Q123" s="14"/>
-      <c r="R123" s="17"/>
-      <c r="S123" s="14"/>
-      <c r="T123" s="14"/>
-      <c r="U123" s="14"/>
-      <c r="V123" s="14"/>
-      <c r="W123" s="47"/>
-      <c r="X123" s="14"/>
-      <c r="Y123" s="14"/>
-      <c r="Z123" s="42"/>
-      <c r="AA123" s="18"/>
-      <c r="AB123" s="18"/>
-      <c r="AC123" s="18"/>
-      <c r="AD123" s="18"/>
-      <c r="AE123" s="18"/>
-      <c r="AF123" s="18"/>
-      <c r="AG123" s="18"/>
-      <c r="AH123" s="18"/>
-      <c r="AI123" s="18"/>
-      <c r="AJ123" s="18"/>
-      <c r="AK123" s="18"/>
-      <c r="AL123" s="18"/>
-      <c r="AM123" s="18"/>
-      <c r="AN123" s="18"/>
-      <c r="AO123" s="18"/>
-      <c r="AP123" s="12"/>
-      <c r="AQ123" s="14"/>
-      <c r="AR123" s="61"/>
-      <c r="AS123" s="75"/>
+      <c r="AR122" s="60"/>
+      <c r="AS122" s="74"/>
+    </row>
+    <row r="123" spans="1:45" s="3" customFormat="1">
+      <c r="A123" s="12"/>
+      <c r="B123" s="119"/>
+      <c r="C123" s="133"/>
+      <c r="D123" s="91"/>
+      <c r="E123" s="86"/>
+      <c r="F123" s="87"/>
+      <c r="G123" s="88"/>
+      <c r="H123" s="89"/>
+      <c r="I123" s="85"/>
+      <c r="J123" s="85"/>
+      <c r="K123" s="85"/>
+      <c r="L123" s="85"/>
+      <c r="M123" s="90"/>
+      <c r="N123" s="90"/>
     </row>
     <row r="124" spans="1:45" s="3" customFormat="1">
-      <c r="A124" s="12"/>
-      <c r="B124" s="121"/>
-      <c r="C124" s="135"/>
-      <c r="D124" s="92"/>
-      <c r="E124" s="87"/>
-      <c r="F124" s="88"/>
-      <c r="G124" s="89"/>
-      <c r="H124" s="90"/>
-      <c r="I124" s="86"/>
-      <c r="J124" s="86"/>
-      <c r="K124" s="86"/>
-      <c r="L124" s="86"/>
-      <c r="M124" s="91"/>
-      <c r="N124" s="91"/>
+      <c r="A124" s="84"/>
+      <c r="B124" s="119"/>
+      <c r="C124" s="133"/>
+      <c r="D124" s="91"/>
+      <c r="E124" s="92"/>
+      <c r="F124" s="93"/>
+      <c r="G124" s="94"/>
+      <c r="H124" s="95"/>
+      <c r="I124" s="91"/>
+      <c r="J124" s="91"/>
+      <c r="K124" s="91"/>
+      <c r="L124" s="91"/>
+      <c r="M124" s="90"/>
+      <c r="N124" s="90"/>
     </row>
     <row r="125" spans="1:45" s="3" customFormat="1">
-      <c r="A125" s="85"/>
-      <c r="B125" s="121"/>
-      <c r="C125" s="135"/>
-      <c r="D125" s="92"/>
-      <c r="E125" s="93"/>
-      <c r="F125" s="94"/>
-      <c r="G125" s="95"/>
-      <c r="H125" s="96"/>
-      <c r="I125" s="92"/>
-      <c r="J125" s="92"/>
-      <c r="K125" s="92"/>
-      <c r="L125" s="92"/>
-      <c r="M125" s="91"/>
-      <c r="N125" s="91"/>
+      <c r="A125" s="84"/>
+      <c r="B125" s="120"/>
+      <c r="C125" s="133"/>
+      <c r="D125" s="91"/>
+      <c r="E125" s="92"/>
+      <c r="F125" s="96"/>
+      <c r="G125" s="94"/>
+      <c r="H125" s="95"/>
+      <c r="I125" s="91"/>
+      <c r="J125" s="91"/>
+      <c r="K125" s="91"/>
+      <c r="L125" s="91"/>
+      <c r="M125" s="90"/>
+      <c r="N125" s="90"/>
     </row>
     <row r="126" spans="1:45" s="3" customFormat="1">
-      <c r="A126" s="85"/>
-      <c r="B126" s="122"/>
-      <c r="C126" s="135"/>
-      <c r="D126" s="92"/>
-      <c r="E126" s="93"/>
-      <c r="F126" s="97"/>
-      <c r="G126" s="95"/>
-      <c r="H126" s="96"/>
-      <c r="I126" s="92"/>
-      <c r="J126" s="92"/>
-      <c r="K126" s="92"/>
-      <c r="L126" s="92"/>
-      <c r="M126" s="91"/>
-      <c r="N126" s="91"/>
+      <c r="A126" s="84"/>
+      <c r="B126" s="120"/>
+      <c r="C126" s="133"/>
+      <c r="D126" s="91"/>
+      <c r="E126" s="97"/>
+      <c r="F126" s="98"/>
+      <c r="G126" s="99"/>
+      <c r="H126" s="100"/>
+      <c r="I126" s="91"/>
+      <c r="J126" s="91"/>
+      <c r="K126" s="91"/>
+      <c r="L126" s="91"/>
+      <c r="M126" s="90"/>
+      <c r="N126" s="90"/>
     </row>
     <row r="127" spans="1:45" s="3" customFormat="1">
-      <c r="A127" s="85"/>
-      <c r="B127" s="122"/>
-      <c r="C127" s="135"/>
-      <c r="D127" s="92"/>
-      <c r="E127" s="98"/>
-      <c r="F127" s="99"/>
-      <c r="G127" s="100"/>
-      <c r="H127" s="101"/>
-      <c r="I127" s="92"/>
-      <c r="J127" s="92"/>
-      <c r="K127" s="92"/>
-      <c r="L127" s="92"/>
-      <c r="M127" s="91"/>
-      <c r="N127" s="91"/>
+      <c r="A127" s="84"/>
+      <c r="B127" s="120"/>
+      <c r="C127" s="133"/>
+      <c r="D127" s="84"/>
+      <c r="E127" s="101"/>
+      <c r="G127" s="90"/>
+      <c r="M127" s="90"/>
+      <c r="N127" s="90"/>
     </row>
     <row r="128" spans="1:45" s="3" customFormat="1">
-      <c r="A128" s="85"/>
-      <c r="B128" s="122"/>
-      <c r="C128" s="135"/>
-      <c r="D128" s="85"/>
+      <c r="A128" s="84"/>
+      <c r="B128" s="120"/>
+      <c r="C128" s="133"/>
+      <c r="D128" s="84"/>
       <c r="E128" s="102"/>
-      <c r="G128" s="91"/>
-      <c r="M128" s="91"/>
-      <c r="N128" s="91"/>
+      <c r="F128" s="103"/>
+      <c r="G128" s="104"/>
+      <c r="M128" s="90"/>
+      <c r="N128" s="90"/>
     </row>
     <row r="129" spans="1:14" s="3" customFormat="1">
-      <c r="A129" s="85"/>
-      <c r="B129" s="122"/>
-      <c r="C129" s="135"/>
-      <c r="D129" s="85"/>
-      <c r="E129" s="103"/>
-      <c r="F129" s="104"/>
-      <c r="G129" s="105"/>
-      <c r="M129" s="91"/>
-      <c r="N129" s="91"/>
+      <c r="A129" s="84"/>
+      <c r="B129" s="120"/>
+      <c r="C129" s="133"/>
+      <c r="D129" s="84"/>
+      <c r="E129" s="105"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+      <c r="H129" s="14"/>
+      <c r="J129" s="106"/>
+      <c r="M129" s="90"/>
+      <c r="N129" s="90"/>
     </row>
     <row r="130" spans="1:14" s="3" customFormat="1">
-      <c r="A130" s="85"/>
-      <c r="B130" s="122"/>
-      <c r="C130" s="135"/>
-      <c r="D130" s="85"/>
-      <c r="E130" s="106"/>
+      <c r="A130" s="84"/>
+      <c r="B130" s="120"/>
+      <c r="C130" s="133"/>
+      <c r="D130" s="84"/>
+      <c r="E130" s="105"/>
       <c r="F130" s="14"/>
       <c r="G130" s="14"/>
       <c r="H130" s="14"/>
-      <c r="J130" s="107"/>
-      <c r="M130" s="91"/>
-      <c r="N130" s="91"/>
+      <c r="M130" s="90"/>
+      <c r="N130" s="90"/>
     </row>
     <row r="131" spans="1:14" s="3" customFormat="1">
-      <c r="A131" s="85"/>
-      <c r="B131" s="122"/>
-      <c r="C131" s="135"/>
-      <c r="D131" s="85"/>
-      <c r="E131" s="106"/>
+      <c r="A131" s="84"/>
+      <c r="B131" s="120"/>
+      <c r="C131" s="133"/>
+      <c r="D131" s="84"/>
+      <c r="E131" s="108"/>
       <c r="F131" s="14"/>
       <c r="G131" s="14"/>
       <c r="H131" s="14"/>
-      <c r="M131" s="91"/>
-      <c r="N131" s="91"/>
+      <c r="M131" s="90"/>
+      <c r="N131" s="90"/>
     </row>
     <row r="132" spans="1:14" s="3" customFormat="1">
-      <c r="A132" s="85"/>
-      <c r="B132" s="122"/>
-      <c r="C132" s="135"/>
-      <c r="D132" s="85"/>
-      <c r="E132" s="109"/>
+      <c r="A132" s="107"/>
+      <c r="B132" s="120"/>
+      <c r="C132" s="133"/>
+      <c r="D132" s="84"/>
+      <c r="E132" s="108"/>
       <c r="F132" s="14"/>
       <c r="G132" s="14"/>
       <c r="H132" s="14"/>
-      <c r="M132" s="91"/>
-      <c r="N132" s="91"/>
+      <c r="J132" s="106"/>
+      <c r="M132" s="90"/>
+      <c r="N132" s="90"/>
     </row>
     <row r="133" spans="1:14" s="3" customFormat="1">
-      <c r="A133" s="108"/>
-      <c r="B133" s="122"/>
-      <c r="C133" s="135"/>
-      <c r="D133" s="85"/>
-      <c r="E133" s="109"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="14"/>
-      <c r="J133" s="107"/>
-      <c r="M133" s="91"/>
-      <c r="N133" s="91"/>
+      <c r="A133" s="107"/>
+      <c r="B133" s="120"/>
+      <c r="C133" s="133"/>
+      <c r="D133" s="84"/>
+      <c r="E133" s="108"/>
+      <c r="F133" s="103"/>
+      <c r="G133" s="104"/>
+      <c r="M133" s="90"/>
+      <c r="N133" s="90"/>
     </row>
     <row r="134" spans="1:14" s="3" customFormat="1">
-      <c r="A134" s="108"/>
-      <c r="B134" s="122"/>
-      <c r="C134" s="135"/>
-      <c r="D134" s="85"/>
-      <c r="E134" s="109"/>
-      <c r="F134" s="104"/>
-      <c r="G134" s="105"/>
-      <c r="M134" s="91"/>
-      <c r="N134" s="91"/>
+      <c r="A134" s="107"/>
+      <c r="B134" s="119"/>
+      <c r="C134" s="133"/>
+      <c r="D134" s="84"/>
+      <c r="E134" s="108"/>
+      <c r="F134" s="103"/>
+      <c r="G134" s="104"/>
+      <c r="M134" s="90"/>
+      <c r="N134" s="90"/>
     </row>
     <row r="135" spans="1:14" s="3" customFormat="1">
-      <c r="A135" s="108"/>
-      <c r="B135" s="121"/>
-      <c r="C135" s="135"/>
-      <c r="D135" s="85"/>
-      <c r="E135" s="109"/>
-      <c r="F135" s="104"/>
-      <c r="G135" s="105"/>
-      <c r="M135" s="91"/>
-      <c r="N135" s="91"/>
+      <c r="A135" s="107"/>
+      <c r="B135" s="119"/>
+      <c r="C135" s="133"/>
+      <c r="D135" s="84"/>
+      <c r="E135" s="105"/>
+      <c r="F135" s="103"/>
+      <c r="G135" s="104"/>
+      <c r="M135" s="90"/>
+      <c r="N135" s="90"/>
     </row>
     <row r="136" spans="1:14" s="3" customFormat="1">
-      <c r="A136" s="108"/>
-      <c r="B136" s="121"/>
-      <c r="C136" s="135"/>
-      <c r="D136" s="85"/>
-      <c r="E136" s="106"/>
-      <c r="F136" s="104"/>
-      <c r="G136" s="105"/>
-      <c r="M136" s="91"/>
-      <c r="N136" s="91"/>
+      <c r="A136" s="107"/>
+      <c r="B136" s="119"/>
+      <c r="C136" s="133"/>
+      <c r="D136" s="84"/>
+      <c r="E136" s="108"/>
+      <c r="F136" s="103"/>
+      <c r="G136" s="104"/>
+      <c r="M136" s="90"/>
+      <c r="N136" s="90"/>
     </row>
     <row r="137" spans="1:14" s="3" customFormat="1">
-      <c r="A137" s="108"/>
-      <c r="B137" s="121"/>
-      <c r="C137" s="135"/>
-      <c r="D137" s="85"/>
-      <c r="E137" s="109"/>
-      <c r="F137" s="104"/>
-      <c r="G137" s="105"/>
-      <c r="M137" s="91"/>
-      <c r="N137" s="91"/>
+      <c r="A137" s="107"/>
+      <c r="B137" s="119"/>
+      <c r="C137" s="133"/>
+      <c r="D137" s="84"/>
+      <c r="E137" s="105"/>
+      <c r="F137" s="103"/>
+      <c r="G137" s="104"/>
+      <c r="M137" s="90"/>
+      <c r="N137" s="90"/>
     </row>
     <row r="138" spans="1:14" s="3" customFormat="1">
-      <c r="A138" s="108"/>
-      <c r="B138" s="121"/>
-      <c r="C138" s="135"/>
-      <c r="D138" s="85"/>
-      <c r="E138" s="106"/>
-      <c r="F138" s="104"/>
-      <c r="G138" s="105"/>
-      <c r="M138" s="91"/>
-      <c r="N138" s="91"/>
+      <c r="A138" s="107"/>
+      <c r="B138" s="119"/>
+      <c r="C138" s="133"/>
+      <c r="D138" s="84"/>
+      <c r="E138" s="105"/>
+      <c r="F138" s="103"/>
+      <c r="G138" s="104"/>
+      <c r="M138" s="90"/>
+      <c r="N138" s="90"/>
     </row>
     <row r="139" spans="1:14" s="3" customFormat="1">
-      <c r="A139" s="108"/>
-      <c r="B139" s="121"/>
-      <c r="C139" s="135"/>
-      <c r="D139" s="85"/>
-      <c r="E139" s="106"/>
-      <c r="F139" s="104"/>
-      <c r="G139" s="105"/>
-      <c r="M139" s="91"/>
-      <c r="N139" s="91"/>
+      <c r="A139" s="107"/>
+      <c r="B139" s="120"/>
+      <c r="C139" s="133"/>
+      <c r="D139" s="84"/>
+      <c r="E139" s="105"/>
+      <c r="F139" s="103"/>
+      <c r="G139" s="104"/>
+      <c r="M139" s="90"/>
+      <c r="N139" s="90"/>
     </row>
     <row r="140" spans="1:14" s="3" customFormat="1">
-      <c r="A140" s="108"/>
-      <c r="B140" s="122"/>
-      <c r="C140" s="135"/>
-      <c r="D140" s="85"/>
-      <c r="E140" s="106"/>
-      <c r="F140" s="104"/>
-      <c r="G140" s="105"/>
-      <c r="M140" s="91"/>
-      <c r="N140" s="91"/>
+      <c r="A140" s="107"/>
+      <c r="B140" s="120"/>
+      <c r="C140" s="133"/>
+      <c r="D140" s="84"/>
+      <c r="E140" s="108"/>
+      <c r="F140" s="103"/>
+      <c r="G140" s="104"/>
+      <c r="M140" s="90"/>
+      <c r="N140" s="90"/>
     </row>
     <row r="141" spans="1:14" s="3" customFormat="1">
-      <c r="A141" s="108"/>
-      <c r="B141" s="122"/>
-      <c r="C141" s="135"/>
-      <c r="D141" s="85"/>
-      <c r="E141" s="109"/>
-      <c r="F141" s="104"/>
-      <c r="G141" s="105"/>
-      <c r="M141" s="91"/>
-      <c r="N141" s="91"/>
+      <c r="A141" s="84"/>
+      <c r="B141" s="119"/>
+      <c r="C141" s="133"/>
+      <c r="D141" s="84"/>
+      <c r="E141" s="108"/>
+      <c r="F141" s="103"/>
+      <c r="G141" s="104"/>
+      <c r="M141" s="90"/>
+      <c r="N141" s="90"/>
     </row>
     <row r="142" spans="1:14" s="3" customFormat="1">
-      <c r="A142" s="85"/>
-      <c r="B142" s="121"/>
-      <c r="C142" s="135"/>
-      <c r="D142" s="85"/>
-      <c r="E142" s="109"/>
-      <c r="F142" s="104"/>
-      <c r="G142" s="105"/>
-      <c r="M142" s="91"/>
-      <c r="N142" s="91"/>
+      <c r="A142" s="84"/>
+      <c r="B142" s="119"/>
+      <c r="C142" s="133"/>
+      <c r="D142" s="84"/>
+      <c r="E142" s="101"/>
+      <c r="G142" s="90"/>
+      <c r="M142" s="90"/>
+      <c r="N142" s="90"/>
     </row>
     <row r="143" spans="1:14" s="3" customFormat="1">
-      <c r="A143" s="85"/>
-      <c r="B143" s="121"/>
-      <c r="C143" s="135"/>
-      <c r="D143" s="85"/>
-      <c r="E143" s="102"/>
-      <c r="G143" s="91"/>
-      <c r="M143" s="91"/>
-      <c r="N143" s="91"/>
+      <c r="A143" s="84"/>
+      <c r="B143" s="120"/>
+      <c r="C143" s="133"/>
+      <c r="D143" s="84"/>
+      <c r="E143" s="101"/>
+      <c r="G143" s="90"/>
+      <c r="M143" s="90"/>
+      <c r="N143" s="90"/>
     </row>
     <row r="144" spans="1:14" s="3" customFormat="1">
-      <c r="A144" s="85"/>
-      <c r="B144" s="122"/>
-      <c r="C144" s="135"/>
-      <c r="D144" s="85"/>
-      <c r="E144" s="102"/>
-      <c r="G144" s="91"/>
-      <c r="M144" s="91"/>
-      <c r="N144" s="91"/>
+      <c r="A144" s="84"/>
+      <c r="B144" s="120"/>
+      <c r="C144" s="133"/>
+      <c r="E144" s="101"/>
+      <c r="G144" s="90"/>
+      <c r="M144" s="90"/>
+      <c r="N144" s="90"/>
     </row>
     <row r="145" spans="1:14" s="3" customFormat="1">
-      <c r="A145" s="85"/>
-      <c r="B145" s="122"/>
-      <c r="C145" s="135"/>
-      <c r="E145" s="102"/>
-      <c r="G145" s="91"/>
-      <c r="M145" s="91"/>
-      <c r="N145" s="91"/>
+      <c r="A145" s="84"/>
+      <c r="B145" s="119"/>
+      <c r="C145" s="133"/>
+      <c r="E145" s="101"/>
+      <c r="G145" s="90"/>
+      <c r="M145" s="90"/>
+      <c r="N145" s="90"/>
     </row>
     <row r="146" spans="1:14" s="3" customFormat="1">
-      <c r="A146" s="85"/>
-      <c r="B146" s="121"/>
-      <c r="C146" s="135"/>
-      <c r="E146" s="102"/>
-      <c r="G146" s="91"/>
-      <c r="M146" s="91"/>
-      <c r="N146" s="91"/>
+      <c r="A146" s="107"/>
+      <c r="B146" s="120"/>
+      <c r="C146" s="133"/>
+      <c r="E146" s="101"/>
+      <c r="G146" s="90"/>
+      <c r="M146" s="90"/>
+      <c r="N146" s="90"/>
     </row>
     <row r="147" spans="1:14" s="3" customFormat="1">
-      <c r="A147" s="108"/>
-      <c r="B147" s="122"/>
-      <c r="C147" s="135"/>
-      <c r="E147" s="102"/>
-      <c r="G147" s="91"/>
-      <c r="M147" s="91"/>
-      <c r="N147" s="91"/>
+      <c r="A147" s="107"/>
+      <c r="B147" s="119"/>
+      <c r="C147" s="133"/>
+      <c r="E147" s="101"/>
+      <c r="G147" s="90"/>
+      <c r="M147" s="90"/>
+      <c r="N147" s="90"/>
     </row>
     <row r="148" spans="1:14" s="3" customFormat="1">
-      <c r="A148" s="108"/>
-      <c r="B148" s="121"/>
-      <c r="C148" s="135"/>
-      <c r="E148" s="102"/>
-      <c r="G148" s="91"/>
-      <c r="M148" s="91"/>
-      <c r="N148" s="91"/>
+      <c r="A148" s="84"/>
+      <c r="B148" s="119"/>
+      <c r="C148" s="133"/>
+      <c r="E148" s="101"/>
+      <c r="G148" s="90"/>
+      <c r="M148" s="90"/>
+      <c r="N148" s="90"/>
     </row>
     <row r="149" spans="1:14" s="3" customFormat="1">
-      <c r="A149" s="85"/>
-      <c r="B149" s="121"/>
-      <c r="C149" s="135"/>
-      <c r="E149" s="102"/>
-      <c r="G149" s="91"/>
-      <c r="M149" s="91"/>
-      <c r="N149" s="91"/>
+      <c r="A149" s="84"/>
+      <c r="B149" s="119"/>
+      <c r="C149" s="133"/>
+      <c r="E149" s="101"/>
+      <c r="G149" s="90"/>
+      <c r="M149" s="90"/>
+      <c r="N149" s="90"/>
     </row>
     <row r="150" spans="1:14" s="3" customFormat="1">
-      <c r="A150" s="85"/>
-      <c r="B150" s="121"/>
-      <c r="C150" s="135"/>
-      <c r="E150" s="102"/>
-      <c r="G150" s="91"/>
-      <c r="M150" s="91"/>
-      <c r="N150" s="91"/>
-    </row>
-    <row r="151" spans="1:14" s="3" customFormat="1">
-      <c r="A151" s="108"/>
-      <c r="B151" s="121"/>
-      <c r="C151" s="135"/>
-      <c r="E151" s="102"/>
-      <c r="G151" s="91"/>
-      <c r="M151" s="91"/>
-      <c r="N151" s="91"/>
-    </row>
-    <row r="152" spans="1:14" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A152" s="108"/>
+      <c r="A150" s="107"/>
+      <c r="B150" s="119"/>
+      <c r="C150" s="133"/>
+      <c r="E150" s="101"/>
+      <c r="G150" s="90"/>
+      <c r="M150" s="90"/>
+      <c r="N150" s="90"/>
+    </row>
+    <row r="151" spans="1:14" s="3" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A151" s="107"/>
+      <c r="B151" s="119"/>
+      <c r="C151" s="133"/>
+      <c r="E151" s="109"/>
+      <c r="G151" s="90"/>
+      <c r="M151" s="90"/>
+      <c r="N151" s="90"/>
+    </row>
+    <row r="152" spans="1:14" s="3" customFormat="1">
+      <c r="A152" s="84"/>
       <c r="B152" s="121"/>
-      <c r="C152" s="135"/>
-      <c r="E152" s="110"/>
-      <c r="G152" s="91"/>
-      <c r="M152" s="91"/>
-      <c r="N152" s="91"/>
+      <c r="C152" s="133"/>
+      <c r="E152" s="101"/>
+      <c r="G152" s="90"/>
+      <c r="M152" s="90"/>
+      <c r="N152" s="90"/>
     </row>
     <row r="153" spans="1:14" s="3" customFormat="1">
-      <c r="A153" s="85"/>
-      <c r="B153" s="123"/>
-      <c r="C153" s="135"/>
-      <c r="E153" s="102"/>
-      <c r="G153" s="91"/>
-      <c r="M153" s="91"/>
-      <c r="N153" s="91"/>
+      <c r="A153" s="107"/>
+      <c r="B153" s="121"/>
+      <c r="C153" s="133"/>
+      <c r="E153" s="109"/>
+      <c r="G153" s="90"/>
+      <c r="M153" s="90"/>
+      <c r="N153" s="90"/>
     </row>
     <row r="154" spans="1:14" s="3" customFormat="1">
-      <c r="A154" s="108"/>
-      <c r="B154" s="123"/>
-      <c r="C154" s="135"/>
-      <c r="E154" s="110"/>
-      <c r="G154" s="91"/>
-      <c r="M154" s="91"/>
-      <c r="N154" s="91"/>
+      <c r="A154" s="84"/>
+      <c r="B154" s="121"/>
+      <c r="C154" s="133"/>
+      <c r="E154" s="101"/>
+      <c r="G154" s="90"/>
+      <c r="M154" s="90"/>
+      <c r="N154" s="90"/>
     </row>
     <row r="155" spans="1:14" s="3" customFormat="1">
-      <c r="A155" s="85"/>
-      <c r="B155" s="123"/>
-      <c r="C155" s="135"/>
-      <c r="E155" s="102"/>
-      <c r="G155" s="91"/>
-      <c r="M155" s="91"/>
-      <c r="N155" s="91"/>
+      <c r="A155" s="84"/>
+      <c r="B155" s="121"/>
+      <c r="C155" s="133"/>
+      <c r="E155" s="101"/>
+      <c r="G155" s="90"/>
+      <c r="M155" s="90"/>
+      <c r="N155" s="90"/>
     </row>
     <row r="156" spans="1:14" s="3" customFormat="1">
-      <c r="A156" s="85"/>
-      <c r="B156" s="123"/>
-      <c r="C156" s="135"/>
-      <c r="E156" s="102"/>
-      <c r="G156" s="91"/>
-      <c r="M156" s="91"/>
-      <c r="N156" s="91"/>
+      <c r="A156" s="84"/>
+      <c r="B156" s="121"/>
+      <c r="C156" s="133"/>
+      <c r="E156" s="101"/>
+      <c r="G156" s="90"/>
+      <c r="M156" s="90"/>
+      <c r="N156" s="90"/>
     </row>
     <row r="157" spans="1:14" s="3" customFormat="1">
-      <c r="A157" s="85"/>
-      <c r="B157" s="123"/>
-      <c r="C157" s="135"/>
-      <c r="E157" s="102"/>
-      <c r="G157" s="91"/>
-      <c r="M157" s="91"/>
-      <c r="N157" s="91"/>
-    </row>
-    <row r="158" spans="1:14" s="3" customFormat="1">
-      <c r="A158" s="85"/>
-      <c r="B158" s="123"/>
-      <c r="C158" s="135"/>
-      <c r="E158" s="102"/>
-      <c r="G158" s="91"/>
-      <c r="M158" s="91"/>
-      <c r="N158" s="91"/>
-    </row>
-    <row r="159" spans="1:14">
-      <c r="A159" s="85"/>
+      <c r="A157" s="84"/>
+      <c r="B157" s="121"/>
+      <c r="C157" s="133"/>
+      <c r="E157" s="101"/>
+      <c r="G157" s="90"/>
+      <c r="M157" s="90"/>
+      <c r="N157" s="90"/>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="A158" s="84"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AR127"/>
+  <autoFilter ref="A1:AR126"/>
   <customSheetViews>
     <customSheetView guid="{199527C1-69F8-466D-BFD8-A4A592B0EF79}" showPageBreaks="1" showRuler="0" topLeftCell="B1">
       <selection activeCell="B7" sqref="B7"/>
@@ -9474,80 +9530,87 @@
       </headerFooter>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="32">
-    <mergeCell ref="J77:J79"/>
-    <mergeCell ref="AS82:AV82"/>
-    <mergeCell ref="AS93:AV93"/>
+  <mergeCells count="33">
+    <mergeCell ref="J76:J78"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="AS81:AV81"/>
+    <mergeCell ref="AS92:AV92"/>
     <mergeCell ref="H21:H26"/>
     <mergeCell ref="I21:I26"/>
     <mergeCell ref="E21:E26"/>
     <mergeCell ref="F21:F26"/>
     <mergeCell ref="G21:G26"/>
-    <mergeCell ref="H82:H88"/>
-    <mergeCell ref="I82:I88"/>
-    <mergeCell ref="J82:J88"/>
-    <mergeCell ref="K82:K88"/>
-    <mergeCell ref="E77:E79"/>
-    <mergeCell ref="F77:F79"/>
-    <mergeCell ref="G77:G79"/>
-    <mergeCell ref="H77:H79"/>
-    <mergeCell ref="I77:I79"/>
-    <mergeCell ref="C82:C88"/>
-    <mergeCell ref="E82:E88"/>
+    <mergeCell ref="H81:H87"/>
+    <mergeCell ref="I81:I87"/>
+    <mergeCell ref="J81:J87"/>
+    <mergeCell ref="K81:K87"/>
+    <mergeCell ref="E76:E78"/>
+    <mergeCell ref="F76:F78"/>
+    <mergeCell ref="G76:G78"/>
+    <mergeCell ref="H76:H78"/>
+    <mergeCell ref="I76:I78"/>
+    <mergeCell ref="C81:C87"/>
+    <mergeCell ref="E81:E87"/>
     <mergeCell ref="A65:A66"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="B2:B20"/>
-    <mergeCell ref="A82:A88"/>
-    <mergeCell ref="B82:B88"/>
+    <mergeCell ref="A81:A87"/>
+    <mergeCell ref="B81:B87"/>
     <mergeCell ref="A27:A28"/>
     <mergeCell ref="A2:A26"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A43:A47"/>
     <mergeCell ref="A54:A56"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="B77:B79"/>
-    <mergeCell ref="A77:A79"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="B76:B78"/>
+    <mergeCell ref="A76:A78"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="9">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S38:S39 S61:S65 R89 S35 S43:S59 S90:S92 S107:S123 P108:P123 S21:S32 H130:H133 H27:H59 H21 H89:H123 L21:L59 S70:S88 N2:N123 L61:L123 H61:H77 H80:H82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S38:S39 S61:S65 R88 S35 S43:S59 S89:S91 S106:S122 P107:P122 S21:S32 H129:H132 H27:H59 H21 H88:H122 L21:L59 H79:H81 H61:H76 L61:L122 N2:N122 S70:S87">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:Y23 X25:X60 Y25:Y123 X62:X123">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:Y23 X25:X60 X62:X122 Y25:Y122">
       <formula1>"Yes,No,N/A,?"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R98:R100 R70:R76 R61:R65 R102 R90:R93 R107:R123 R21:R59 R80:R88">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R97:R99 R61:R65 R101 R89:R92 R106:R122 R21:R59 R79:R87 R70:R75">
       <formula1>"Yes, No, NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P106:P107 P76:P80 P63:P65 L33:L34 L66:L69 L36:L37 P98:P103 P21:P50 H130:H133 P91:P96 H66:H69 H33:H34 H40:H42 H36:H37 L93:L123 H93:H123 P81:P89 L40:L42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P105:P106 P75:P79 P63:P65 L33:L34 L66:L69 L36:L37 P97:P102 P21:P50 H129:H132 P90:P95 H66:H69 H33:H34 H40:H42 H36:H37 L92:L122 H92:H122 P80:P88 L40:L42">
       <formula1>"Yes, No, N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q98:Q102 Q35:Q65 Q106:Q123 Q21:Q32 Q70:Q93">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q97:Q101 Q35:Q65 Q105:Q122 Q21:Q32 Q70:Q92">
       <formula1>"Prior, With, Independent"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M21:M59 N2:N117 M61:M123">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M21:M59 M61:M122 N2:N116">
       <formula1>"Internal, External"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AO23 AA25:AO123">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AO23 AA25:AO122">
       <formula1>"X, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AR23 AR25:AR123">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR2:AR23 AR25:AR122">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F77 F80:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F79:F1048576 F1:F76">
       <formula1>Type_of_Software</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J99" r:id="rId1"/>
-    <hyperlink ref="J77" r:id="rId2" display="http://www.apache.org/licenses/LICENSE-2.0"/>
+    <hyperlink ref="J98" r:id="rId1"/>
+    <hyperlink ref="J76" r:id="rId2" display="http://www.apache.org/licenses/LICENSE-2.0"/>
+    <hyperlink ref="J75" r:id="rId3"/>
+    <hyperlink ref="J74" r:id="rId4"/>
+    <hyperlink ref="E73" r:id="rId5"/>
+    <hyperlink ref="J73" r:id="rId6"/>
+    <hyperlink ref="E72" r:id="rId7"/>
+    <hyperlink ref="J72" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="30" fitToHeight="0" orientation="landscape" r:id="rId3"/>
+  <pageSetup scale="30" fitToHeight="0" orientation="landscape" r:id="rId9"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12 3rd Party Software/Services Workbook - &amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId4"/>
+  <legacyDrawing r:id="rId10"/>
 </worksheet>
 </file>